--- a/sandbox/jet1.xlsx
+++ b/sandbox/jet1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839CA4CF-C9A5-402E-84A9-AAD0F49E12C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05B3E03-8312-4782-B729-BEC84A9373CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{39CC6A0A-1757-44D0-8D8A-5548E1B66DC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{39CC6A0A-1757-44D0-8D8A-5548E1B66DC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,14 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
+    <definedName name="c_nozzle">Лист1!$L$24</definedName>
     <definedName name="d_nozzle">Лист1!$D$23</definedName>
     <definedName name="d_throat">Лист1!$D$24</definedName>
     <definedName name="feed_act">Лист1!$D$20</definedName>
     <definedName name="feed_in">Лист1!$G$20</definedName>
     <definedName name="pact">Лист1!$H$23</definedName>
     <definedName name="pin">Лист1!$H$24</definedName>
+    <definedName name="t_c">Лист1!$L$23</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -68,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>Проверка характеристики струйного насоса</t>
   </si>
@@ -118,12 +120,6 @@
     <t>feed</t>
   </si>
   <si>
-    <t>feed active</t>
-  </si>
-  <si>
-    <t>feed in</t>
-  </si>
-  <si>
     <t>d_nozzle</t>
   </si>
   <si>
@@ -144,11 +140,50 @@
   <si>
     <t>p_out</t>
   </si>
+  <si>
+    <t>Расчет расхода через сопло</t>
+  </si>
+  <si>
+    <t>p_in</t>
+  </si>
+  <si>
+    <t>t_c</t>
+  </si>
+  <si>
+    <t>c_nozzle</t>
+  </si>
+  <si>
+    <t>feed_out</t>
+  </si>
+  <si>
+    <t>p_act</t>
+  </si>
+  <si>
+    <t>q mix</t>
+  </si>
+  <si>
+    <t>q_wat</t>
+  </si>
+  <si>
+    <t>p_out_mix</t>
+  </si>
+  <si>
+    <t>feed_out_mix</t>
+  </si>
+  <si>
+    <t>Параметры активного потока</t>
+  </si>
+  <si>
+    <t>Параметры перекачиваемого потока</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,9 +223,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -223,6 +264,36 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Характеристика</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> струйного насоса</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -306,124 +377,124 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>12</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>17</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>19</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>22</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>23</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>24</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>25</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>26</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>27</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>28</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>30</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>32</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>33</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>35</c:v>
+                  <c:v>70</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>36</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>37</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>38</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>39</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>40</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -435,127 +506,127 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>57.806419322682387</c:v>
+                  <c:v>52.975130358010382</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57.06115590930856</c:v>
+                  <c:v>52.31308965482377</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56.216425223059829</c:v>
+                  <c:v>51.605835864485812</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>55.35415745581691</c:v>
+                  <c:v>50.887947366850192</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>54.474352607579796</c:v>
+                  <c:v>50.159424161916924</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>53.577010678348486</c:v>
+                  <c:v>49.420266249685994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52.662131668122996</c:v>
+                  <c:v>48.670473630157417</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>51.72971557690331</c:v>
+                  <c:v>47.910046303331185</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50.779762404689428</c:v>
+                  <c:v>47.138984269207299</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49.812272151481359</c:v>
+                  <c:v>46.357287527785751</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48.827244817279094</c:v>
+                  <c:v>45.564956079066555</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47.824680402082642</c:v>
+                  <c:v>44.761989923049697</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>46.804578905892001</c:v>
+                  <c:v>43.948389059735192</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45.766940328707165</c:v>
+                  <c:v>43.124153489123039</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.711764670528133</c:v>
+                  <c:v>42.289283211213224</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43.639051931354906</c:v>
+                  <c:v>41.443778226005747</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42.548802111187513</c:v>
+                  <c:v>40.587638533500623</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41.441015210025903</c:v>
+                  <c:v>39.720864133697837</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40.315691227870111</c:v>
+                  <c:v>38.843455026597404</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>39.172830164720125</c:v>
+                  <c:v>37.955411212199316</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>38.012432020575943</c:v>
+                  <c:v>37.056732690503573</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>36.834496795437573</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>35.639024489305022</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -564,6 +635,453 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-A2DC-44F8-9039-78D90EE903A0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p_out_mix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$27:$C$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$G$27:$G$67</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>52.957662714727441</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.957348528664475</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50.880904642692585</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>49.780377079948408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48.655765840431947</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>47.507070924143193</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46.33429233108216</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.137430061248843</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43.916484114643239</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42.671454491265344</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41.402341191115163</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40.109144214192696</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38.791863560497944</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37.450499230030907</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-764B-42DD-AAE1-1963C580AC87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$Q$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p_act</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$P$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$Q$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-764B-42DD-AAE1-1963C580AC87}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$S$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>p_in</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$R$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$S$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-764B-42DD-AAE1-1963C580AC87}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -585,20 +1103,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Дебит</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" baseline="0"/>
+                  <a:t> жидкости, м3/сут</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
           <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-        </c:majorGridlines>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -663,6 +1227,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Давление, атм</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -712,6 +1331,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -725,11 +1375,769 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="accent5">
+        <a:lumMod val="20000"/>
+        <a:lumOff val="80000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Характеристика сопла струйного насоса</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$S$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>q mix</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$S$5:$S$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>36.235146705700139</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.495576107117813</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.548856799710748</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.572974567091244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.46922772453917</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28.209023451925447</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>25.751197449686359</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.032571199807165</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.946791773506835</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16.286487283545622</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.516285599903583</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1432436417728109</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.2835385361387806</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.307729401739107</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.1502394899372712</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.6417692680693903</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$R$5:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C486-4969-94E9-6AE0F635E792}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$T$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>q_wat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$T$5:$T$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>25.174894877708759</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.174894877708759</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.174894877708759</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.174894877708759</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.174894877708759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>24.82338246893579</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.504040836404084</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>21.491348454762598</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.87269352473384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15.549122303255134</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.06044191320346</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8379071326408232</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.0131217762996938</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.0757728734126033</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.9625960386065993</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.5102714562707242</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$R$5:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C486-4969-94E9-6AE0F635E792}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1903193775"/>
+        <c:axId val="1903194191"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1903193775"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Дебит жидкости через сопло, м3/сут</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1903194191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1903194191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Давление на выходе из сопла, атм</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1903193775"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -796,6 +2204,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -1312,20 +2757,558 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>411480</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>487679</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>118110</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1350,6 +3333,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A9F8DBF-0E26-4636-9F8B-2A30EA763278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1363,6 +3384,8 @@
       <definedName name="encode_feed"/>
       <definedName name="encode_PVT"/>
       <definedName name="Jet_p_out_atma"/>
+      <definedName name="Jet_q_nozzle_sm3day"/>
+      <definedName name="MF_choke_q_sm3day"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1669,34 +3692,66 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA63A231-9388-4A72-8CC8-C9F6403E0CC5}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="C2:H67"/>
+  <dimension ref="C1:T67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P25" sqref="P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="6" max="7" width="11.42578125" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="S1">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="R2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="R4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="R5" s="2">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3" cm="1">
+        <f t="array" ref="S5">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R5,t_c,c_nozzle)</f>
+        <v>36.235146705700139</v>
+      </c>
+      <c r="T5" s="3" cm="1">
+        <f t="array" ref="T5">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R5,t_c,,,,$S$1)</f>
+        <v>25.174894877708759</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>1</v>
       </c>
@@ -1709,8 +3764,19 @@
       <c r="G6">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="R6" s="2">
+        <v>5</v>
+      </c>
+      <c r="S6" s="3" cm="1">
+        <f t="array" ref="S6">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R6,t_c,c_nozzle)</f>
+        <v>35.495576107117813</v>
+      </c>
+      <c r="T6" s="3" cm="1">
+        <f t="array" ref="T6">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R6,t_c,,,,$S$1)</f>
+        <v>25.174894877708759</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>2</v>
       </c>
@@ -1723,8 +3789,19 @@
       <c r="G7">
         <v>0.86</v>
       </c>
-    </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="R7" s="2">
+        <v>10</v>
+      </c>
+      <c r="S7" s="3" cm="1">
+        <f t="array" ref="S7">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R7,t_c,c_nozzle)</f>
+        <v>34.548856799710748</v>
+      </c>
+      <c r="T7" s="3" cm="1">
+        <f t="array" ref="T7">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R7,t_c,,,,$S$1)</f>
+        <v>25.174894877708759</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>3</v>
       </c>
@@ -1737,8 +3814,19 @@
       <c r="G8">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="R8" s="2">
+        <v>20</v>
+      </c>
+      <c r="S8" s="3" cm="1">
+        <f t="array" ref="S8">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R8,t_c,c_nozzle)</f>
+        <v>32.572974567091244</v>
+      </c>
+      <c r="T8" s="3" cm="1">
+        <f t="array" ref="T8">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R8,t_c,,,,$S$1)</f>
+        <v>25.174894877708759</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>4</v>
       </c>
@@ -1751,8 +3839,19 @@
       <c r="G9">
         <v>120</v>
       </c>
-    </row>
-    <row r="10" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="R9" s="2">
+        <v>30</v>
+      </c>
+      <c r="S9" s="3" cm="1">
+        <f t="array" ref="S9">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R9,t_c,c_nozzle)</f>
+        <v>30.46922772453917</v>
+      </c>
+      <c r="T9" s="3" cm="1">
+        <f t="array" ref="T9">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R9,t_c,,,,$S$1)</f>
+        <v>25.174894877708759</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>5</v>
       </c>
@@ -1765,8 +3864,19 @@
       <c r="G10">
         <v>130</v>
       </c>
-    </row>
-    <row r="11" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="R10" s="2">
+        <v>40</v>
+      </c>
+      <c r="S10" s="3" cm="1">
+        <f t="array" ref="S10">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R10,t_c,c_nozzle)</f>
+        <v>28.209023451925447</v>
+      </c>
+      <c r="T10" s="3" cm="1">
+        <f t="array" ref="T10">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R10,t_c,,,,$S$1)</f>
+        <v>24.82338246893579</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>6</v>
       </c>
@@ -1779,8 +3889,19 @@
       <c r="G11">
         <v>80</v>
       </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="R11" s="2">
+        <v>50</v>
+      </c>
+      <c r="S11" s="3" cm="1">
+        <f t="array" ref="S11">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R11,t_c,c_nozzle)</f>
+        <v>25.751197449686359</v>
+      </c>
+      <c r="T11" s="3" cm="1">
+        <f t="array" ref="T11">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R11,t_c,,,,$S$1)</f>
+        <v>23.504040836404084</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>7</v>
       </c>
@@ -1793,8 +3914,19 @@
       <c r="G12">
         <v>1.2</v>
       </c>
-    </row>
-    <row r="13" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="R12" s="2">
+        <v>60</v>
+      </c>
+      <c r="S12" s="3" cm="1">
+        <f t="array" ref="S12">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R12,t_c,c_nozzle)</f>
+        <v>23.032571199807165</v>
+      </c>
+      <c r="T12" s="3" cm="1">
+        <f t="array" ref="T12">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R12,t_c,,,,$S$1)</f>
+        <v>21.491348454762598</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>8</v>
       </c>
@@ -1807,8 +3939,19 @@
       <c r="G13">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="14" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="R13" s="2">
+        <v>70</v>
+      </c>
+      <c r="S13" s="3" cm="1">
+        <f t="array" ref="S13">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R13,t_c,c_nozzle)</f>
+        <v>19.946791773506835</v>
+      </c>
+      <c r="T13" s="3" cm="1">
+        <f t="array" ref="T13">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R13,t_c,,,,$S$1)</f>
+        <v>18.87269352473384</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>9</v>
       </c>
@@ -1821,8 +3964,19 @@
       <c r="G14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="R14" s="2">
+        <v>80</v>
+      </c>
+      <c r="S14" s="3" cm="1">
+        <f t="array" ref="S14">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R14,t_c,c_nozzle)</f>
+        <v>16.286487283545622</v>
+      </c>
+      <c r="T14" s="3" cm="1">
+        <f t="array" ref="T14">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R14,t_c,,,,$S$1)</f>
+        <v>15.549122303255134</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>10</v>
       </c>
@@ -1837,8 +3991,19 @@
         <f>[1]!encode_PVT(G6,G7,G8,G9,G10,G11,G12,G13,G14)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0}</v>
       </c>
-    </row>
-    <row r="16" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="R15" s="2">
+        <v>90</v>
+      </c>
+      <c r="S15" s="3" cm="1">
+        <f t="array" ref="S15">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R15,t_c,c_nozzle)</f>
+        <v>11.516285599903583</v>
+      </c>
+      <c r="T15" s="3" cm="1">
+        <f t="array" ref="T15">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R15,t_c,,,,$S$1)</f>
+        <v>11.06044191320346</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>11</v>
       </c>
@@ -1851,22 +4016,44 @@
       <c r="G16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R16" s="2">
+        <v>95</v>
+      </c>
+      <c r="S16" s="3" cm="1">
+        <f t="array" ref="S16">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R16,t_c,c_nozzle)</f>
+        <v>8.1432436417728109</v>
+      </c>
+      <c r="T16" s="3" cm="1">
+        <f t="array" ref="T16">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R16,t_c,,,,$S$1)</f>
+        <v>7.8379071326408232</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>12</v>
       </c>
       <c r="D17">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="F17" t="s">
         <v>12</v>
       </c>
       <c r="G17">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+      <c r="R17" s="2">
+        <v>96</v>
+      </c>
+      <c r="S17" s="3" cm="1">
+        <f t="array" ref="S17">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R17,t_c,c_nozzle)</f>
+        <v>7.2835385361387806</v>
+      </c>
+      <c r="T17" s="3" cm="1">
+        <f t="array" ref="T17">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R17,t_c,,,,$S$1)</f>
+        <v>7.0131217762996938</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>13</v>
       </c>
@@ -1879,8 +4066,19 @@
       <c r="G18">
         <v>120</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R18" s="2">
+        <v>97</v>
+      </c>
+      <c r="S18" s="3" cm="1">
+        <f t="array" ref="S18">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R18,t_c,c_nozzle)</f>
+        <v>6.307729401739107</v>
+      </c>
+      <c r="T18" s="3" cm="1">
+        <f t="array" ref="T18">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R18,t_c,,,,$S$1)</f>
+        <v>6.0757728734126033</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -1893,593 +4091,1081 @@
       <c r="G19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="R19" s="2">
+        <v>98</v>
+      </c>
+      <c r="S19" s="3" cm="1">
+        <f t="array" ref="S19">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R19,t_c,c_nozzle)</f>
+        <v>5.1502394899372712</v>
+      </c>
+      <c r="T19" s="3" cm="1">
+        <f t="array" ref="T19">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R19,t_c,,,,$S$1)</f>
+        <v>4.9625960386065993</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="str">
         <f>[1]!encode_feed(D16,D17,D18,D19,D15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":30,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":30,"fw_perc":70,"rp_m3m3":120}</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
       </c>
       <c r="G20" t="str">
         <f>[1]!encode_feed(G16,G17,G18,G19,G15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":10,"fw_perc":100,"rp_m3m3":120}</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":10,"fw_perc":90,"rp_m3m3":120}</v>
+      </c>
+      <c r="R20" s="2">
+        <v>99</v>
+      </c>
+      <c r="S20" s="3" cm="1">
+        <f t="array" ref="S20">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R20,t_c,c_nozzle)</f>
+        <v>3.6417692680693903</v>
+      </c>
+      <c r="T20" s="3" cm="1">
+        <f t="array" ref="T20">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R20,t_c,,,,$S$1)</f>
+        <v>3.5102714562707242</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="R21" s="2">
+        <v>100</v>
+      </c>
+      <c r="S21" s="2" cm="1">
+        <f t="array" ref="S21">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R21,t_c,c_nozzle)</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="3" cm="1">
+        <f t="array" ref="T21">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R21,t_c,,,,$S$1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="Q22" t="s">
+        <v>28</v>
+      </c>
+      <c r="S22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H23">
         <v>100</v>
       </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="K23" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23">
+        <v>30</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <f>pact</f>
+        <v>100</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <f>pin</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D24">
         <v>4</v>
       </c>
       <c r="G24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H24">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="K24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C27">
         <v>0</v>
       </c>
       <c r="D27" t="str" cm="1">
         <f t="array" ref="D27">[1]!encode_feed(C27,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":0,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":0,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E27" cm="1">
-        <f t="array" ref="E27">[1]!Jet_p_out_atma(feed_act,D27,d_nozzle,d_throat,pact,pin)</f>
-        <v>57.806419322682387</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+        <f t="array" ref="E27:F27">[1]!Jet_p_out_atma(feed_act,D27,d_nozzle,d_throat,pact,pin)</f>
+        <v>52.975130358010382</v>
+      </c>
+      <c r="F27" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":33.806,"fw_perc":70.059,"rp_m3m3":120}</v>
+      </c>
+      <c r="G27" cm="1">
+        <f t="array" ref="G27:H27">[1]!Jet_p_out_atma(feed_act,D27,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>52.957662714727441</v>
+      </c>
+      <c r="H27" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":22.498,"fw_perc":70.089,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" t="str" cm="1">
         <f t="array" ref="D28">[1]!encode_feed(C28,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":1,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":2,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E28" cm="1">
-        <f t="array" ref="E28">[1]!Jet_p_out_atma(feed_act,D28,d_nozzle,d_throat,pact,pin)</f>
-        <v>57.06115590930856</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+        <f t="array" ref="E28:F28">[1]!Jet_p_out_atma(feed_act,D28,d_nozzle,d_throat,pact,pin)</f>
+        <v>52.31308965482377</v>
+      </c>
+      <c r="F28" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":35.706,"fw_perc":71.12,"rp_m3m3":120}</v>
+      </c>
+      <c r="G28" cm="1">
+        <f t="array" ref="G28:H28">[1]!Jet_p_out_atma(feed_act,D28,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>51.957348528664475</v>
+      </c>
+      <c r="H28" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":24.398,"fw_perc":71.639,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D29" t="str" cm="1">
         <f t="array" ref="D29">[1]!encode_feed(C29,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":2,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":4,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E29" cm="1">
-        <f t="array" ref="E29">[1]!Jet_p_out_atma(feed_act,D29,d_nozzle,d_throat,pact,pin)</f>
-        <v>56.216425223059829</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+        <f t="array" ref="E29:F29">[1]!Jet_p_out_atma(feed_act,D29,d_nozzle,d_throat,pact,pin)</f>
+        <v>51.605835864485812</v>
+      </c>
+      <c r="F29" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":37.706,"fw_perc":72.122,"rp_m3m3":120}</v>
+      </c>
+      <c r="G29" cm="1">
+        <f t="array" ref="G29:H29">[1]!Jet_p_out_atma(feed_act,D29,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>50.880904642692585</v>
+      </c>
+      <c r="H29" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":26.398,"fw_perc":73.031,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C30">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D30" t="str" cm="1">
         <f t="array" ref="D30">[1]!encode_feed(C30,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":3,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":6,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E30" cm="1">
-        <f t="array" ref="E30">[1]!Jet_p_out_atma(feed_act,D30,d_nozzle,d_throat,pact,pin)</f>
-        <v>55.35415745581691</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+        <f t="array" ref="E30:F30">[1]!Jet_p_out_atma(feed_act,D30,d_nozzle,d_throat,pact,pin)</f>
+        <v>50.887947366850192</v>
+      </c>
+      <c r="F30" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":39.706,"fw_perc":73.022,"rp_m3m3":120}</v>
+      </c>
+      <c r="G30" cm="1">
+        <f t="array" ref="G30:H30">[1]!Jet_p_out_atma(feed_act,D30,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>49.780377079948408</v>
+      </c>
+      <c r="H30" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":28.398,"fw_perc":74.226,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C31">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D31" t="str" cm="1">
         <f t="array" ref="D31">[1]!encode_feed(C31,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":4,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":8,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E31" cm="1">
-        <f t="array" ref="E31">[1]!Jet_p_out_atma(feed_act,D31,d_nozzle,d_throat,pact,pin)</f>
-        <v>54.474352607579796</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
+        <f t="array" ref="E31:F31">[1]!Jet_p_out_atma(feed_act,D31,d_nozzle,d_throat,pact,pin)</f>
+        <v>50.159424161916924</v>
+      </c>
+      <c r="F31" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":41.706,"fw_perc":73.836,"rp_m3m3":120}</v>
+      </c>
+      <c r="G31" cm="1">
+        <f t="array" ref="G31:H31">[1]!Jet_p_out_atma(feed_act,D31,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>48.655765840431947</v>
+      </c>
+      <c r="H31" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":30.398,"fw_perc":75.264,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C32">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D32" t="str" cm="1">
         <f t="array" ref="D32">[1]!encode_feed(C32,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":5,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":10,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E32" cm="1">
-        <f t="array" ref="E32">[1]!Jet_p_out_atma(feed_act,D32,d_nozzle,d_throat,pact,pin)</f>
-        <v>53.577010678348486</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E32:F32">[1]!Jet_p_out_atma(feed_act,D32,d_nozzle,d_throat,pact,pin)</f>
+        <v>49.420266249685994</v>
+      </c>
+      <c r="F32" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":43.706,"fw_perc":74.576,"rp_m3m3":120}</v>
+      </c>
+      <c r="G32" cm="1">
+        <f t="array" ref="G32:H32">[1]!Jet_p_out_atma(feed_act,D32,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>47.507070924143193</v>
+      </c>
+      <c r="H32" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":32.398,"fw_perc":76.173,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C33">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D33" t="str" cm="1">
         <f t="array" ref="D33">[1]!encode_feed(C33,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":6,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":12,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E33" cm="1">
-        <f t="array" ref="E33">[1]!Jet_p_out_atma(feed_act,D33,d_nozzle,d_throat,pact,pin)</f>
-        <v>52.662131668122996</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E33:F33">[1]!Jet_p_out_atma(feed_act,D33,d_nozzle,d_throat,pact,pin)</f>
+        <v>48.670473630157417</v>
+      </c>
+      <c r="F33" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":45.706,"fw_perc":75.251,"rp_m3m3":120}</v>
+      </c>
+      <c r="G33" cm="1">
+        <f t="array" ref="G33:H33">[1]!Jet_p_out_atma(feed_act,D33,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>46.33429233108216</v>
+      </c>
+      <c r="H33" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":34.398,"fw_perc":76.977,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="34" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C34">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D34" t="str" cm="1">
         <f t="array" ref="D34">[1]!encode_feed(C34,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":7,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":14,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E34" cm="1">
-        <f t="array" ref="E34">[1]!Jet_p_out_atma(feed_act,D34,d_nozzle,d_throat,pact,pin)</f>
-        <v>51.72971557690331</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E34:F34">[1]!Jet_p_out_atma(feed_act,D34,d_nozzle,d_throat,pact,pin)</f>
+        <v>47.910046303331185</v>
+      </c>
+      <c r="F34" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":47.706,"fw_perc":75.869,"rp_m3m3":120}</v>
+      </c>
+      <c r="G34" cm="1">
+        <f t="array" ref="G34:H34">[1]!Jet_p_out_atma(feed_act,D34,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>45.137430061248843</v>
+      </c>
+      <c r="H34" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":36.398,"fw_perc":77.693,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="35" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C35">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D35" t="str" cm="1">
         <f t="array" ref="D35">[1]!encode_feed(C35,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":8,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":16,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E35" cm="1">
-        <f t="array" ref="E35">[1]!Jet_p_out_atma(feed_act,D35,d_nozzle,d_throat,pact,pin)</f>
-        <v>50.779762404689428</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E35:F35">[1]!Jet_p_out_atma(feed_act,D35,d_nozzle,d_throat,pact,pin)</f>
+        <v>47.138984269207299</v>
+      </c>
+      <c r="F35" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":49.706,"fw_perc":76.438,"rp_m3m3":120}</v>
+      </c>
+      <c r="G35" cm="1">
+        <f t="array" ref="G35:H35">[1]!Jet_p_out_atma(feed_act,D35,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>43.916484114643239</v>
+      </c>
+      <c r="H35" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":38.398,"fw_perc":78.334,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C36">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D36" t="str" cm="1">
         <f t="array" ref="D36">[1]!encode_feed(C36,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":9,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":18,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E36" cm="1">
-        <f t="array" ref="E36">[1]!Jet_p_out_atma(feed_act,D36,d_nozzle,d_throat,pact,pin)</f>
-        <v>49.812272151481359</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E36:F36">[1]!Jet_p_out_atma(feed_act,D36,d_nozzle,d_throat,pact,pin)</f>
+        <v>46.357287527785751</v>
+      </c>
+      <c r="F36" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":51.706,"fw_perc":76.962,"rp_m3m3":120}</v>
+      </c>
+      <c r="G36" cm="1">
+        <f t="array" ref="G36:H36">[1]!Jet_p_out_atma(feed_act,D36,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>42.671454491265344</v>
+      </c>
+      <c r="H36" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":40.398,"fw_perc":78.911,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C37">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D37" t="str" cm="1">
         <f t="array" ref="D37">[1]!encode_feed(C37,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":10,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":20,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E37" cm="1">
-        <f t="array" ref="E37">[1]!Jet_p_out_atma(feed_act,D37,d_nozzle,d_throat,pact,pin)</f>
-        <v>48.827244817279094</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E37:F37">[1]!Jet_p_out_atma(feed_act,D37,d_nozzle,d_throat,pact,pin)</f>
+        <v>45.564956079066555</v>
+      </c>
+      <c r="F37" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":53.706,"fw_perc":77.448,"rp_m3m3":120}</v>
+      </c>
+      <c r="G37" cm="1">
+        <f t="array" ref="G37:H37">[1]!Jet_p_out_atma(feed_act,D37,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>41.402341191115163</v>
+      </c>
+      <c r="H37" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":42.398,"fw_perc":79.434,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C38">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D38" t="str" cm="1">
         <f t="array" ref="D38">[1]!encode_feed(C38,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":11,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":22,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E38" cm="1">
-        <f t="array" ref="E38">[1]!Jet_p_out_atma(feed_act,D38,d_nozzle,d_throat,pact,pin)</f>
-        <v>47.824680402082642</v>
-      </c>
-    </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E38:F38">[1]!Jet_p_out_atma(feed_act,D38,d_nozzle,d_throat,pact,pin)</f>
+        <v>44.761989923049697</v>
+      </c>
+      <c r="F38" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":55.706,"fw_perc":77.899,"rp_m3m3":120}</v>
+      </c>
+      <c r="G38" cm="1">
+        <f t="array" ref="G38:H38">[1]!Jet_p_out_atma(feed_act,D38,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>40.109144214192696</v>
+      </c>
+      <c r="H38" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":44.398,"fw_perc":79.91,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C39">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="D39" t="str" cm="1">
         <f t="array" ref="D39">[1]!encode_feed(C39,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":12,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":24,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E39" cm="1">
-        <f t="array" ref="E39">[1]!Jet_p_out_atma(feed_act,D39,d_nozzle,d_throat,pact,pin)</f>
-        <v>46.804578905892001</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E39:F39">[1]!Jet_p_out_atma(feed_act,D39,d_nozzle,d_throat,pact,pin)</f>
+        <v>43.948389059735192</v>
+      </c>
+      <c r="F39" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":57.706,"fw_perc":78.318,"rp_m3m3":120}</v>
+      </c>
+      <c r="G39" cm="1">
+        <f t="array" ref="G39:H39">[1]!Jet_p_out_atma(feed_act,D39,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>38.791863560497944</v>
+      </c>
+      <c r="H39" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":46.398,"fw_perc":80.345,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C40">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D40" t="str" cm="1">
         <f t="array" ref="D40">[1]!encode_feed(C40,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":13,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":26,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E40" cm="1">
-        <f t="array" ref="E40">[1]!Jet_p_out_atma(feed_act,D40,d_nozzle,d_throat,pact,pin)</f>
-        <v>45.766940328707165</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E40:F40">[1]!Jet_p_out_atma(feed_act,D40,d_nozzle,d_throat,pact,pin)</f>
+        <v>43.124153489123039</v>
+      </c>
+      <c r="F40" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":59.706,"fw_perc":78.709,"rp_m3m3":120}</v>
+      </c>
+      <c r="G40" cm="1">
+        <f t="array" ref="G40:H40">[1]!Jet_p_out_atma(feed_act,D40,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>37.450499230030907</v>
+      </c>
+      <c r="H40" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":48.398,"fw_perc":80.744,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C41">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="D41" t="str" cm="1">
         <f t="array" ref="D41">[1]!encode_feed(C41,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":14,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":28,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E41" cm="1">
-        <f t="array" ref="E41">[1]!Jet_p_out_atma(feed_act,D41,d_nozzle,d_throat,pact,pin)</f>
-        <v>44.711764670528133</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E41:F41">[1]!Jet_p_out_atma(feed_act,D41,d_nozzle,d_throat,pact,pin)</f>
+        <v>42.289283211213224</v>
+      </c>
+      <c r="F41" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":61.706,"fw_perc":79.075,"rp_m3m3":120}</v>
+      </c>
+      <c r="G41" cm="1">
+        <f t="array" ref="G41:H41">[1]!Jet_p_out_atma(feed_act,D41,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H41" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":50.398,"fw_perc":81.112,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C42">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="D42" t="str" cm="1">
         <f t="array" ref="D42">[1]!encode_feed(C42,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":15,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":30,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E42" cm="1">
-        <f t="array" ref="E42">[1]!Jet_p_out_atma(feed_act,D42,d_nozzle,d_throat,pact,pin)</f>
-        <v>43.639051931354906</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E42:F42">[1]!Jet_p_out_atma(feed_act,D42,d_nozzle,d_throat,pact,pin)</f>
+        <v>41.443778226005747</v>
+      </c>
+      <c r="F42" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":63.706,"fw_perc":79.418,"rp_m3m3":120}</v>
+      </c>
+      <c r="G42" cm="1">
+        <f t="array" ref="G42:H42">[1]!Jet_p_out_atma(feed_act,D42,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H42" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":52.398,"fw_perc":81.451,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C43">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D43" t="str" cm="1">
         <f t="array" ref="D43">[1]!encode_feed(C43,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":16,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":32,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E43" cm="1">
-        <f t="array" ref="E43">[1]!Jet_p_out_atma(feed_act,D43,d_nozzle,d_throat,pact,pin)</f>
-        <v>42.548802111187513</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E43:F43">[1]!Jet_p_out_atma(feed_act,D43,d_nozzle,d_throat,pact,pin)</f>
+        <v>40.587638533500623</v>
+      </c>
+      <c r="F43" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":65.706,"fw_perc":79.74,"rp_m3m3":120}</v>
+      </c>
+      <c r="G43" cm="1">
+        <f t="array" ref="G43:H43">[1]!Jet_p_out_atma(feed_act,D43,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H43" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":54.398,"fw_perc":81.765,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C44">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="D44" t="str" cm="1">
         <f t="array" ref="D44">[1]!encode_feed(C44,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":17,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":34,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E44" cm="1">
-        <f t="array" ref="E44">[1]!Jet_p_out_atma(feed_act,D44,d_nozzle,d_throat,pact,pin)</f>
-        <v>41.441015210025903</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E44:F44">[1]!Jet_p_out_atma(feed_act,D44,d_nozzle,d_throat,pact,pin)</f>
+        <v>39.720864133697837</v>
+      </c>
+      <c r="F44" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":67.706,"fw_perc":80.043,"rp_m3m3":120}</v>
+      </c>
+      <c r="G44" cm="1">
+        <f t="array" ref="G44:H44">[1]!Jet_p_out_atma(feed_act,D44,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H44" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":56.398,"fw_perc":82.057,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="45" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C45">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D45" t="str" cm="1">
         <f t="array" ref="D45">[1]!encode_feed(C45,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":18,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":36,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E45" cm="1">
-        <f t="array" ref="E45">[1]!Jet_p_out_atma(feed_act,D45,d_nozzle,d_throat,pact,pin)</f>
-        <v>40.315691227870111</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E45:F45">[1]!Jet_p_out_atma(feed_act,D45,d_nozzle,d_throat,pact,pin)</f>
+        <v>38.843455026597404</v>
+      </c>
+      <c r="F45" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":69.706,"fw_perc":80.329,"rp_m3m3":120}</v>
+      </c>
+      <c r="G45" cm="1">
+        <f t="array" ref="G45:H45">[1]!Jet_p_out_atma(feed_act,D45,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H45" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":58.398,"fw_perc":82.329,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C46">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D46" t="str" cm="1">
         <f t="array" ref="D46">[1]!encode_feed(C46,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":19,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":38,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E46" cm="1">
-        <f t="array" ref="E46">[1]!Jet_p_out_atma(feed_act,D46,d_nozzle,d_throat,pact,pin)</f>
-        <v>39.172830164720125</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E46:F46">[1]!Jet_p_out_atma(feed_act,D46,d_nozzle,d_throat,pact,pin)</f>
+        <v>37.955411212199316</v>
+      </c>
+      <c r="F46" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":71.706,"fw_perc":80.599,"rp_m3m3":120}</v>
+      </c>
+      <c r="G46" cm="1">
+        <f t="array" ref="G46:H46">[1]!Jet_p_out_atma(feed_act,D46,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H46" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":60.398,"fw_perc":82.583,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C47">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D47" t="str" cm="1">
         <f t="array" ref="D47">[1]!encode_feed(C47,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":20,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":40,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E47" cm="1">
-        <f t="array" ref="E47">[1]!Jet_p_out_atma(feed_act,D47,d_nozzle,d_throat,pact,pin)</f>
-        <v>38.012432020575943</v>
-      </c>
-    </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E47:F47">[1]!Jet_p_out_atma(feed_act,D47,d_nozzle,d_throat,pact,pin)</f>
+        <v>37.056732690503573</v>
+      </c>
+      <c r="F47" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":73.706,"fw_perc":80.854,"rp_m3m3":120}</v>
+      </c>
+      <c r="G47" cm="1">
+        <f t="array" ref="G47:H47">[1]!Jet_p_out_atma(feed_act,D47,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H47" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":62.398,"fw_perc":82.821,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C48">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="D48" t="str" cm="1">
         <f t="array" ref="D48">[1]!encode_feed(C48,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":21,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":42,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E48" cm="1">
-        <f t="array" ref="E48">[1]!Jet_p_out_atma(feed_act,D48,d_nozzle,d_throat,pact,pin)</f>
-        <v>36.834496795437573</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E48:F48">[1]!Jet_p_out_atma(feed_act,D48,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
+      </c>
+      <c r="F48" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":75.706,"fw_perc":81.096,"rp_m3m3":120}</v>
+      </c>
+      <c r="G48" cm="1">
+        <f t="array" ref="G48:H48">[1]!Jet_p_out_atma(feed_act,D48,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H48" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":64.398,"fw_perc":83.044,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C49">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D49" t="str" cm="1">
         <f t="array" ref="D49">[1]!encode_feed(C49,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":22,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":44,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E49" cm="1">
-        <f t="array" ref="E49">[1]!Jet_p_out_atma(feed_act,D49,d_nozzle,d_throat,pact,pin)</f>
-        <v>35.639024489305022</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E49:F49">[1]!Jet_p_out_atma(feed_act,D49,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
+      </c>
+      <c r="F49" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":77.706,"fw_perc":81.325,"rp_m3m3":120}</v>
+      </c>
+      <c r="G49" cm="1">
+        <f t="array" ref="G49:H49">[1]!Jet_p_out_atma(feed_act,D49,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H49" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":66.398,"fw_perc":83.253,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C50">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="D50" t="str" cm="1">
         <f t="array" ref="D50">[1]!encode_feed(C50,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":23,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":46,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E50" cm="1">
-        <f t="array" ref="E50">[1]!Jet_p_out_atma(feed_act,D50,d_nozzle,d_throat,pact,pin)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E50:F50">[1]!Jet_p_out_atma(feed_act,D50,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
+      </c>
+      <c r="F50" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":79.706,"fw_perc":81.542,"rp_m3m3":120}</v>
+      </c>
+      <c r="G50" cm="1">
+        <f t="array" ref="G50:H50">[1]!Jet_p_out_atma(feed_act,D50,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H50" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":68.398,"fw_perc":83.451,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C51">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D51" t="str" cm="1">
         <f t="array" ref="D51">[1]!encode_feed(C51,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":24,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":48,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E51" cm="1">
-        <f t="array" ref="E51">[1]!Jet_p_out_atma(feed_act,D51,d_nozzle,d_throat,pact,pin)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E51:F51">[1]!Jet_p_out_atma(feed_act,D51,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
+      </c>
+      <c r="F51" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":81.706,"fw_perc":81.749,"rp_m3m3":120}</v>
+      </c>
+      <c r="G51" cm="1">
+        <f t="array" ref="G51:H51">[1]!Jet_p_out_atma(feed_act,D51,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H51" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":70.398,"fw_perc":83.637,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C52">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="D52" t="str" cm="1">
         <f t="array" ref="D52">[1]!encode_feed(C52,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":25,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":50,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E52" cm="1">
-        <f t="array" ref="E52">[1]!Jet_p_out_atma(feed_act,D52,d_nozzle,d_throat,pact,pin)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E52:F52">[1]!Jet_p_out_atma(feed_act,D52,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
+      </c>
+      <c r="F52" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":83.706,"fw_perc":81.947,"rp_m3m3":120}</v>
+      </c>
+      <c r="G52" cm="1">
+        <f t="array" ref="G52:H52">[1]!Jet_p_out_atma(feed_act,D52,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H52" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":72.398,"fw_perc":83.813,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C53">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="D53" t="str" cm="1">
         <f t="array" ref="D53">[1]!encode_feed(C53,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":26,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":52,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E53" cm="1">
-        <f t="array" ref="E53">[1]!Jet_p_out_atma(feed_act,D53,d_nozzle,d_throat,pact,pin)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E53:F53">[1]!Jet_p_out_atma(feed_act,D53,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
+      </c>
+      <c r="F53" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":85.706,"fw_perc":82.135,"rp_m3m3":120}</v>
+      </c>
+      <c r="G53" cm="1">
+        <f t="array" ref="G53:H53">[1]!Jet_p_out_atma(feed_act,D53,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H53" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":74.398,"fw_perc":83.979,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C54">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="D54" t="str" cm="1">
         <f t="array" ref="D54">[1]!encode_feed(C54,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":27,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":54,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E54" cm="1">
-        <f t="array" ref="E54">[1]!Jet_p_out_atma(feed_act,D54,d_nozzle,d_throat,pact,pin)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E54:F54">[1]!Jet_p_out_atma(feed_act,D54,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
+      </c>
+      <c r="F54" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":87.706,"fw_perc":82.314,"rp_m3m3":120}</v>
+      </c>
+      <c r="G54" cm="1">
+        <f t="array" ref="G54:H54">[1]!Jet_p_out_atma(feed_act,D54,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H54" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":76.398,"fw_perc":84.137,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C55">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="D55" t="str" cm="1">
         <f t="array" ref="D55">[1]!encode_feed(C55,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":28,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":56,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E55" cm="1">
-        <f t="array" ref="E55">[1]!Jet_p_out_atma(feed_act,D55,d_nozzle,d_throat,pact,pin)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E55:F55">[1]!Jet_p_out_atma(feed_act,D55,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
+      </c>
+      <c r="F55" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":89.706,"fw_perc":82.485,"rp_m3m3":120}</v>
+      </c>
+      <c r="G55" cm="1">
+        <f t="array" ref="G55:H55">[1]!Jet_p_out_atma(feed_act,D55,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H55" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":78.398,"fw_perc":84.286,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C56">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D56" t="str" cm="1">
         <f t="array" ref="D56">[1]!encode_feed(C56,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":29,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":58,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E56" cm="1">
-        <f t="array" ref="E56">[1]!Jet_p_out_atma(feed_act,D56,d_nozzle,d_throat,pact,pin)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E56:F56">[1]!Jet_p_out_atma(feed_act,D56,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
+      </c>
+      <c r="F56" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":91.706,"fw_perc":82.649,"rp_m3m3":120}</v>
+      </c>
+      <c r="G56" cm="1">
+        <f t="array" ref="G56:H56">[1]!Jet_p_out_atma(feed_act,D56,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H56" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":80.398,"fw_perc":84.428,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C57">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D57" t="str" cm="1">
         <f t="array" ref="D57">[1]!encode_feed(C57,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":30,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":60,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E57" cm="1">
-        <f t="array" ref="E57">[1]!Jet_p_out_atma(feed_act,D57,d_nozzle,d_throat,pact,pin)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E57:F57">[1]!Jet_p_out_atma(feed_act,D57,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
+      </c>
+      <c r="F57" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":93.706,"fw_perc":82.806,"rp_m3m3":120}</v>
+      </c>
+      <c r="G57" cm="1">
+        <f t="array" ref="G57:H57">[1]!Jet_p_out_atma(feed_act,D57,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H57" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":82.398,"fw_perc":84.563,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C58">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="D58" t="str" cm="1">
         <f t="array" ref="D58">[1]!encode_feed(C58,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":31,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":62,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E58" cm="1">
-        <f t="array" ref="E58">[1]!Jet_p_out_atma(feed_act,D58,d_nozzle,d_throat,pact,pin)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E58:F58">[1]!Jet_p_out_atma(feed_act,D58,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
+      </c>
+      <c r="F58" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":95.706,"fw_perc":82.956,"rp_m3m3":120}</v>
+      </c>
+      <c r="G58" cm="1">
+        <f t="array" ref="G58:H58">[1]!Jet_p_out_atma(feed_act,D58,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H58" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":84.398,"fw_perc":84.692,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C59">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="D59" t="str" cm="1">
         <f t="array" ref="D59">[1]!encode_feed(C59,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":32,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":64,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E59" cm="1">
-        <f t="array" ref="E59">[1]!Jet_p_out_atma(feed_act,D59,d_nozzle,d_throat,pact,pin)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E59:F59">[1]!Jet_p_out_atma(feed_act,D59,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
+      </c>
+      <c r="F59" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":97.706,"fw_perc":83.101,"rp_m3m3":120}</v>
+      </c>
+      <c r="G59" cm="1">
+        <f t="array" ref="G59:H59">[1]!Jet_p_out_atma(feed_act,D59,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H59" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":86.398,"fw_perc":84.815,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C60">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="D60" t="str" cm="1">
         <f t="array" ref="D60">[1]!encode_feed(C60,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":33,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":66,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E60" cm="1">
-        <f t="array" ref="E60">[1]!Jet_p_out_atma(feed_act,D60,d_nozzle,d_throat,pact,pin)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E60:F60">[1]!Jet_p_out_atma(feed_act,D60,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
+      </c>
+      <c r="F60" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":99.706,"fw_perc":83.239,"rp_m3m3":120}</v>
+      </c>
+      <c r="G60" cm="1">
+        <f t="array" ref="G60:H60">[1]!Jet_p_out_atma(feed_act,D60,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H60" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":88.398,"fw_perc":84.932,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C61">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D61" t="str" cm="1">
         <f t="array" ref="D61">[1]!encode_feed(C61,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":34,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":68,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E61" cm="1">
-        <f t="array" ref="E61">[1]!Jet_p_out_atma(feed_act,D61,d_nozzle,d_throat,pact,pin)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E61:F61">[1]!Jet_p_out_atma(feed_act,D61,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
+      </c>
+      <c r="F61" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":101.706,"fw_perc":83.372,"rp_m3m3":120}</v>
+      </c>
+      <c r="G61" cm="1">
+        <f t="array" ref="G61:H61">[1]!Jet_p_out_atma(feed_act,D61,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H61" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":90.398,"fw_perc":85.045,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C62">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="D62" t="str" cm="1">
         <f t="array" ref="D62">[1]!encode_feed(C62,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":35,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":70,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E62" cm="1">
-        <f t="array" ref="E62">[1]!Jet_p_out_atma(feed_act,D62,d_nozzle,d_throat,pact,pin)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E62:F62">[1]!Jet_p_out_atma(feed_act,D62,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
+      </c>
+      <c r="F62" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":103.706,"fw_perc":83.5,"rp_m3m3":120}</v>
+      </c>
+      <c r="G62" cm="1">
+        <f t="array" ref="G62:H62">[1]!Jet_p_out_atma(feed_act,D62,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H62" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":92.398,"fw_perc":85.152,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C63">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D63" t="str" cm="1">
         <f t="array" ref="D63">[1]!encode_feed(C63,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":36,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":72,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E63" cm="1">
-        <f t="array" ref="E63">[1]!Jet_p_out_atma(feed_act,D63,d_nozzle,d_throat,pact,pin)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E63:F63">[1]!Jet_p_out_atma(feed_act,D63,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
+      </c>
+      <c r="F63" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":105.706,"fw_perc":83.623,"rp_m3m3":120}</v>
+      </c>
+      <c r="G63" cm="1">
+        <f t="array" ref="G63:H63">[1]!Jet_p_out_atma(feed_act,D63,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H63" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":94.398,"fw_perc":85.255,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C64">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="D64" t="str" cm="1">
         <f t="array" ref="D64">[1]!encode_feed(C64,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":37,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":74,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E64" cm="1">
-        <f t="array" ref="E64">[1]!Jet_p_out_atma(feed_act,D64,d_nozzle,d_throat,pact,pin)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E64:F64">[1]!Jet_p_out_atma(feed_act,D64,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
+      </c>
+      <c r="F64" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":107.706,"fw_perc":83.741,"rp_m3m3":120}</v>
+      </c>
+      <c r="G64" cm="1">
+        <f t="array" ref="G64:H64">[1]!Jet_p_out_atma(feed_act,D64,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H64" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":96.398,"fw_perc":85.353,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C65">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="D65" t="str" cm="1">
         <f t="array" ref="D65">[1]!encode_feed(C65,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":38,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":76,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E65" cm="1">
-        <f t="array" ref="E65">[1]!Jet_p_out_atma(feed_act,D65,d_nozzle,d_throat,pact,pin)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E65:F65">[1]!Jet_p_out_atma(feed_act,D65,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
+      </c>
+      <c r="F65" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":109.706,"fw_perc":83.855,"rp_m3m3":120}</v>
+      </c>
+      <c r="G65" cm="1">
+        <f t="array" ref="G65:H65">[1]!Jet_p_out_atma(feed_act,D65,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H65" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":98.398,"fw_perc":85.447,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C66">
-        <v>39</v>
+        <v>78</v>
       </c>
       <c r="D66" t="str" cm="1">
         <f t="array" ref="D66">[1]!encode_feed(C66,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":39,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":78,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E66" cm="1">
-        <f t="array" ref="E66">[1]!Jet_p_out_atma(feed_act,D66,d_nozzle,d_throat,pact,pin)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.3">
+        <f t="array" ref="E66:F66">[1]!Jet_p_out_atma(feed_act,D66,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
+      </c>
+      <c r="F66" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":111.706,"fw_perc":83.965,"rp_m3m3":120}</v>
+      </c>
+      <c r="G66" cm="1">
+        <f t="array" ref="G66:H66">[1]!Jet_p_out_atma(feed_act,D66,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H66" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":100.398,"fw_perc":85.538,"rp_m3m3":120}</v>
+      </c>
+    </row>
+    <row r="67" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C67">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D67" t="str" cm="1">
         <f t="array" ref="D67">[1]!encode_feed(C67,$G$17,$G$18,,$G$15)</f>
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":40,"fw_perc":100,"rp_m3m3":120}</v>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":80,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E67" cm="1">
-        <f t="array" ref="E67">[1]!Jet_p_out_atma(feed_act,D67,d_nozzle,d_throat,pact,pin)</f>
-        <v>0</v>
+        <f t="array" ref="E67:F67">[1]!Jet_p_out_atma(feed_act,D67,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
+      </c>
+      <c r="F67" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":113.706,"fw_perc":84.071,"rp_m3m3":120}</v>
+      </c>
+      <c r="G67" cm="1">
+        <f t="array" ref="G67:H67">[1]!Jet_p_out_atma(feed_act,D67,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
+      </c>
+      <c r="H67" t="str">
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":102.398,"fw_perc":85.625,"rp_m3m3":120}</v>
       </c>
     </row>
   </sheetData>

--- a/sandbox/jet1.xlsx
+++ b/sandbox/jet1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05B3E03-8312-4782-B729-BEC84A9373CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F45F4C-7860-461E-A8D4-B31F7E7097BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{39CC6A0A-1757-44D0-8D8A-5548E1B66DC9}"/>
   </bookViews>

--- a/sandbox/jet1.xlsx
+++ b/sandbox/jet1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unifloc\unifloc_vba\sandbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F45F4C-7860-461E-A8D4-B31F7E7097BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC00A8B8-B1DB-43F0-B898-17C622783855}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{39CC6A0A-1757-44D0-8D8A-5548E1B66DC9}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="30912" windowHeight="16872" xr2:uid="{39CC6A0A-1757-44D0-8D8A-5548E1B66DC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -182,7 +181,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -229,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -506,67 +505,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>52.975130358010382</c:v>
+                  <c:v>70.50379463795997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>52.31308965482377</c:v>
+                  <c:v>68.063028864087443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>51.605835864485812</c:v>
+                  <c:v>65.377349772077253</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50.887947366850192</c:v>
+                  <c:v>62.572232770715232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50.159424161916924</c:v>
+                  <c:v>59.647677860001345</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49.420266249685994</c:v>
+                  <c:v>56.60368503993562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48.670473630157417</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>47.910046303331185</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>47.138984269207299</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>46.357287527785751</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45.564956079066555</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>44.761989923049697</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43.948389059735192</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43.124153489123039</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42.289283211213224</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>41.443778226005747</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40.587638533500623</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39.720864133697837</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>38.843455026597404</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>37.955411212199316</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>37.056732690503573</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>20</c:v>
@@ -815,46 +814,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="41"/>
                 <c:pt idx="0">
-                  <c:v>52.957662714727441</c:v>
+                  <c:v>70.50379463795997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>51.957348528664475</c:v>
+                  <c:v>68.063028864087443</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>50.880904642692585</c:v>
+                  <c:v>65.377349772077253</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>49.780377079948408</c:v>
+                  <c:v>62.572232770715232</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48.655765840431947</c:v>
+                  <c:v>59.647677860001345</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>47.507070924143193</c:v>
+                  <c:v>56.60368503993562</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>46.33429233108216</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45.137430061248843</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43.916484114643239</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42.671454491265344</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>41.402341191115163</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.109144214192696</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>38.791863560497944</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37.450499230030907</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="14">
                   <c:v>20</c:v>
@@ -1541,52 +1540,52 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>36.235146705700139</c:v>
+                  <c:v>144.94058682280055</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.495576107117813</c:v>
+                  <c:v>141.98230442847125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.548856799710748</c:v>
+                  <c:v>138.19542719884299</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>130.29189826836497</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>121.87691089815668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>112.83609380770179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>103.00478979874543</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>92.130284799228662</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>79.787167094027339</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>65.145949134182487</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46.065142399614331</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>32.572974567091244</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>30.46922772453917</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>28.209023451925447</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>25.751197449686359</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>23.032571199807165</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>19.946791773506835</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>16.286487283545622</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.516285599903583</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>8.1432436417728109</c:v>
-                </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.2835385361387806</c:v>
+                  <c:v>29.134154144555122</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.307729401739107</c:v>
+                  <c:v>25.230917606956428</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1502394899372712</c:v>
+                  <c:v>20.600957959749085</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.6417692680693903</c:v>
+                  <c:v>14.567077072277561</c:v>
                 </c:pt>
                 <c:pt idx="16" formatCode="General">
                   <c:v>0</c:v>
@@ -1720,52 +1719,52 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>25.174894877708759</c:v>
+                  <c:v>100.69996836066622</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>25.174894877708759</c:v>
+                  <c:v>100.69996836066622</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>25.174894877708759</c:v>
+                  <c:v>100.69996836066622</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>25.174894877708759</c:v>
+                  <c:v>100.69996836066622</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>25.174894877708759</c:v>
+                  <c:v>100.69996836066622</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24.82338246893579</c:v>
+                  <c:v>99.37103412616824</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.504040836404084</c:v>
+                  <c:v>94.139720879476045</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.491348454762598</c:v>
+                  <c:v>86.100521225490596</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.87269352473384</c:v>
+                  <c:v>75.619351678947396</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15.549122303255134</c:v>
+                  <c:v>62.306687002813526</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11.06044191320346</c:v>
+                  <c:v>44.321726661350873</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7.8379071326408232</c:v>
+                  <c:v>31.408617617152061</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7.0131217762996938</c:v>
+                  <c:v>28.103525795870876</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>6.0757728734126033</c:v>
+                  <c:v>24.347345905020269</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.9625960386065993</c:v>
+                  <c:v>19.886558685491732</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.5102714562707242</c:v>
+                  <c:v>14.06669215313072</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0</c:v>
@@ -3695,7 +3694,7 @@
   <dimension ref="C1:T67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3744,11 +3743,11 @@
       </c>
       <c r="S5" s="3" cm="1">
         <f t="array" ref="S5">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R5,t_c,c_nozzle)</f>
-        <v>36.235146705700139</v>
+        <v>144.94058682280055</v>
       </c>
       <c r="T5" s="3" cm="1">
         <f t="array" ref="T5">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R5,t_c,,,,$S$1)</f>
-        <v>25.174894877708759</v>
+        <v>100.69996836066622</v>
       </c>
     </row>
     <row r="6" spans="3:20" x14ac:dyDescent="0.25">
@@ -3769,11 +3768,11 @@
       </c>
       <c r="S6" s="3" cm="1">
         <f t="array" ref="S6">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R6,t_c,c_nozzle)</f>
-        <v>35.495576107117813</v>
+        <v>141.98230442847125</v>
       </c>
       <c r="T6" s="3" cm="1">
         <f t="array" ref="T6">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R6,t_c,,,,$S$1)</f>
-        <v>25.174894877708759</v>
+        <v>100.69996836066622</v>
       </c>
     </row>
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
@@ -3794,11 +3793,11 @@
       </c>
       <c r="S7" s="3" cm="1">
         <f t="array" ref="S7">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R7,t_c,c_nozzle)</f>
-        <v>34.548856799710748</v>
+        <v>138.19542719884299</v>
       </c>
       <c r="T7" s="3" cm="1">
         <f t="array" ref="T7">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R7,t_c,,,,$S$1)</f>
-        <v>25.174894877708759</v>
+        <v>100.69996836066622</v>
       </c>
     </row>
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
@@ -3819,11 +3818,11 @@
       </c>
       <c r="S8" s="3" cm="1">
         <f t="array" ref="S8">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R8,t_c,c_nozzle)</f>
-        <v>32.572974567091244</v>
+        <v>130.29189826836497</v>
       </c>
       <c r="T8" s="3" cm="1">
         <f t="array" ref="T8">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R8,t_c,,,,$S$1)</f>
-        <v>25.174894877708759</v>
+        <v>100.69996836066622</v>
       </c>
     </row>
     <row r="9" spans="3:20" x14ac:dyDescent="0.25">
@@ -3844,11 +3843,11 @@
       </c>
       <c r="S9" s="3" cm="1">
         <f t="array" ref="S9">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R9,t_c,c_nozzle)</f>
-        <v>30.46922772453917</v>
+        <v>121.87691089815668</v>
       </c>
       <c r="T9" s="3" cm="1">
         <f t="array" ref="T9">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R9,t_c,,,,$S$1)</f>
-        <v>25.174894877708759</v>
+        <v>100.69996836066622</v>
       </c>
     </row>
     <row r="10" spans="3:20" x14ac:dyDescent="0.25">
@@ -3869,11 +3868,11 @@
       </c>
       <c r="S10" s="3" cm="1">
         <f t="array" ref="S10">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R10,t_c,c_nozzle)</f>
-        <v>28.209023451925447</v>
+        <v>112.83609380770179</v>
       </c>
       <c r="T10" s="3" cm="1">
         <f t="array" ref="T10">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R10,t_c,,,,$S$1)</f>
-        <v>24.82338246893579</v>
+        <v>99.37103412616824</v>
       </c>
     </row>
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
@@ -3894,11 +3893,11 @@
       </c>
       <c r="S11" s="3" cm="1">
         <f t="array" ref="S11">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R11,t_c,c_nozzle)</f>
-        <v>25.751197449686359</v>
+        <v>103.00478979874543</v>
       </c>
       <c r="T11" s="3" cm="1">
         <f t="array" ref="T11">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R11,t_c,,,,$S$1)</f>
-        <v>23.504040836404084</v>
+        <v>94.139720879476045</v>
       </c>
     </row>
     <row r="12" spans="3:20" x14ac:dyDescent="0.25">
@@ -3919,11 +3918,11 @@
       </c>
       <c r="S12" s="3" cm="1">
         <f t="array" ref="S12">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R12,t_c,c_nozzle)</f>
-        <v>23.032571199807165</v>
+        <v>92.130284799228662</v>
       </c>
       <c r="T12" s="3" cm="1">
         <f t="array" ref="T12">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R12,t_c,,,,$S$1)</f>
-        <v>21.491348454762598</v>
+        <v>86.100521225490596</v>
       </c>
     </row>
     <row r="13" spans="3:20" x14ac:dyDescent="0.25">
@@ -3944,11 +3943,11 @@
       </c>
       <c r="S13" s="3" cm="1">
         <f t="array" ref="S13">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R13,t_c,c_nozzle)</f>
-        <v>19.946791773506835</v>
+        <v>79.787167094027339</v>
       </c>
       <c r="T13" s="3" cm="1">
         <f t="array" ref="T13">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R13,t_c,,,,$S$1)</f>
-        <v>18.87269352473384</v>
+        <v>75.619351678947396</v>
       </c>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.25">
@@ -3969,11 +3968,11 @@
       </c>
       <c r="S14" s="3" cm="1">
         <f t="array" ref="S14">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R14,t_c,c_nozzle)</f>
-        <v>16.286487283545622</v>
+        <v>65.145949134182487</v>
       </c>
       <c r="T14" s="3" cm="1">
         <f t="array" ref="T14">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R14,t_c,,,,$S$1)</f>
-        <v>15.549122303255134</v>
+        <v>62.306687002813526</v>
       </c>
     </row>
     <row r="15" spans="3:20" x14ac:dyDescent="0.25">
@@ -3988,19 +3987,19 @@
         <v>10</v>
       </c>
       <c r="G15" t="str">
-        <f>[1]!encode_PVT(G6,G7,G8,G9,G10,G11,G12,G13,G14)</f>
+        <f ca="1">[1]!encode_PVT(G6,G7,G8,G9,G10,G11,G12,G13,G14)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0}</v>
       </c>
       <c r="R15" s="2">
         <v>90</v>
       </c>
       <c r="S15" s="3" cm="1">
-        <f t="array" ref="S15">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R15,t_c,c_nozzle)</f>
-        <v>11.516285599903583</v>
+        <f t="array" aca="1" ref="S15" ca="1">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R15,t_c,c_nozzle)</f>
+        <v>46.065142399614331</v>
       </c>
       <c r="T15" s="3" cm="1">
-        <f t="array" ref="T15">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R15,t_c,,,,$S$1)</f>
-        <v>11.06044191320346</v>
+        <f t="array" aca="1" ref="T15" ca="1">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R15,t_c,,,,$S$1)</f>
+        <v>44.321726661350873</v>
       </c>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.25">
@@ -4020,12 +4019,12 @@
         <v>95</v>
       </c>
       <c r="S16" s="3" cm="1">
-        <f t="array" ref="S16">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R16,t_c,c_nozzle)</f>
-        <v>8.1432436417728109</v>
+        <f t="array" aca="1" ref="S16" ca="1">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R16,t_c,c_nozzle)</f>
+        <v>32.572974567091244</v>
       </c>
       <c r="T16" s="3" cm="1">
-        <f t="array" ref="T16">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R16,t_c,,,,$S$1)</f>
-        <v>7.8379071326408232</v>
+        <f t="array" aca="1" ref="T16" ca="1">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R16,t_c,,,,$S$1)</f>
+        <v>31.408617617152061</v>
       </c>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.25">
@@ -4045,12 +4044,12 @@
         <v>96</v>
       </c>
       <c r="S17" s="3" cm="1">
-        <f t="array" ref="S17">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R17,t_c,c_nozzle)</f>
-        <v>7.2835385361387806</v>
+        <f t="array" aca="1" ref="S17" ca="1">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R17,t_c,c_nozzle)</f>
+        <v>29.134154144555122</v>
       </c>
       <c r="T17" s="3" cm="1">
-        <f t="array" ref="T17">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R17,t_c,,,,$S$1)</f>
-        <v>7.0131217762996938</v>
+        <f t="array" aca="1" ref="T17" ca="1">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R17,t_c,,,,$S$1)</f>
+        <v>28.103525795870876</v>
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
@@ -4070,12 +4069,12 @@
         <v>97</v>
       </c>
       <c r="S18" s="3" cm="1">
-        <f t="array" ref="S18">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R18,t_c,c_nozzle)</f>
-        <v>6.307729401739107</v>
+        <f t="array" aca="1" ref="S18" ca="1">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R18,t_c,c_nozzle)</f>
+        <v>25.230917606956428</v>
       </c>
       <c r="T18" s="3" cm="1">
-        <f t="array" ref="T18">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R18,t_c,,,,$S$1)</f>
-        <v>6.0757728734126033</v>
+        <f t="array" aca="1" ref="T18" ca="1">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R18,t_c,,,,$S$1)</f>
+        <v>24.347345905020269</v>
       </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.25">
@@ -4095,12 +4094,12 @@
         <v>98</v>
       </c>
       <c r="S19" s="3" cm="1">
-        <f t="array" ref="S19">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R19,t_c,c_nozzle)</f>
-        <v>5.1502394899372712</v>
+        <f t="array" aca="1" ref="S19" ca="1">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R19,t_c,c_nozzle)</f>
+        <v>20.600957959749085</v>
       </c>
       <c r="T19" s="3" cm="1">
-        <f t="array" ref="T19">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R19,t_c,,,,$S$1)</f>
-        <v>4.9625960386065993</v>
+        <f t="array" aca="1" ref="T19" ca="1">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R19,t_c,,,,$S$1)</f>
+        <v>19.886558685491732</v>
       </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
@@ -4108,26 +4107,26 @@
         <v>15</v>
       </c>
       <c r="D20" t="str">
-        <f>[1]!encode_feed(D16,D17,D18,D19,D15)</f>
+        <f ca="1">[1]!encode_feed(D16,D17,D18,D19,D15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":30,"fw_perc":70,"rp_m3m3":120}</v>
       </c>
       <c r="F20" t="s">
         <v>15</v>
       </c>
       <c r="G20" t="str">
-        <f>[1]!encode_feed(G16,G17,G18,G19,G15)</f>
+        <f ca="1">[1]!encode_feed(G16,G17,G18,G19,G15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":10,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="R20" s="2">
         <v>99</v>
       </c>
       <c r="S20" s="3" cm="1">
-        <f t="array" ref="S20">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R20,t_c,c_nozzle)</f>
-        <v>3.6417692680693903</v>
+        <f t="array" aca="1" ref="S20" ca="1">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R20,t_c,c_nozzle)</f>
+        <v>14.567077072277561</v>
       </c>
       <c r="T20" s="3" cm="1">
-        <f t="array" ref="T20">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R20,t_c,,,,$S$1)</f>
-        <v>3.5102714562707242</v>
+        <f t="array" aca="1" ref="T20" ca="1">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R20,t_c,,,,$S$1)</f>
+        <v>14.06669215313072</v>
       </c>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.25">
@@ -4135,11 +4134,11 @@
         <v>100</v>
       </c>
       <c r="S21" s="2" cm="1">
-        <f t="array" ref="S21">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R21,t_c,c_nozzle)</f>
+        <f t="array" aca="1" ref="S21" ca="1">[1]!Jet_q_nozzle_sm3day($D$27,d_nozzle,pact,R21,t_c,c_nozzle)</f>
         <v>0</v>
       </c>
       <c r="T21" s="3" cm="1">
-        <f t="array" ref="T21">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R21,t_c,,,,$S$1)</f>
+        <f t="array" aca="1" ref="T21" ca="1">[1]!MF_choke_q_sm3day($D$27,d_nozzle,pact,R21,t_c,,,,$S$1)</f>
         <v>0</v>
       </c>
     </row>
@@ -4156,7 +4155,7 @@
         <v>16</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G23" t="s">
         <v>19</v>
@@ -4190,7 +4189,7 @@
         <v>17</v>
       </c>
       <c r="D24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G24" t="s">
         <v>20</v>
@@ -4230,22 +4229,24 @@
         <v>0</v>
       </c>
       <c r="D27" t="str" cm="1">
-        <f t="array" ref="D27">[1]!encode_feed(C27,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D27" ca="1">[1]!encode_feed(C27,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":0,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E27" cm="1">
-        <f t="array" ref="E27:F27">[1]!Jet_p_out_atma(feed_act,D27,d_nozzle,d_throat,pact,pin)</f>
-        <v>52.975130358010382</v>
+        <f t="array" aca="1" ref="E27:F27" ca="1">[1]!Jet_p_out_atma(feed_act,D27,d_nozzle,d_throat,pact,pin)</f>
+        <v>70.50379463795997</v>
       </c>
       <c r="F27" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":33.806,"fw_perc":70.059,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":134.924,"fw_perc":70.015,"rp_m3m3":120}</v>
       </c>
       <c r="G27" cm="1">
-        <f t="array" ref="G27:H27">[1]!Jet_p_out_atma(feed_act,D27,d_nozzle,d_throat,pact,pin,,,1)</f>
-        <v>52.957662714727441</v>
+        <f t="array" aca="1" ref="G27:H27" ca="1">[1]!Jet_p_out_atma(feed_act,D27,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>70.50379463795997</v>
       </c>
       <c r="H27" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":22.498,"fw_perc":70.089,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":94.723,"fw_perc":70.021,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.25">
@@ -4253,22 +4254,24 @@
         <v>2</v>
       </c>
       <c r="D28" t="str" cm="1">
-        <f t="array" ref="D28">[1]!encode_feed(C28,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D28" ca="1">[1]!encode_feed(C28,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":2,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E28" cm="1">
-        <f t="array" ref="E28:F28">[1]!Jet_p_out_atma(feed_act,D28,d_nozzle,d_throat,pact,pin)</f>
-        <v>52.31308965482377</v>
+        <f t="array" aca="1" ref="E28:F28" ca="1">[1]!Jet_p_out_atma(feed_act,D28,d_nozzle,d_throat,pact,pin)</f>
+        <v>68.063028864087443</v>
       </c>
       <c r="F28" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":35.706,"fw_perc":71.12,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":136.824,"fw_perc":70.292,"rp_m3m3":120}</v>
       </c>
       <c r="G28" cm="1">
-        <f t="array" ref="G28:H28">[1]!Jet_p_out_atma(feed_act,D28,d_nozzle,d_throat,pact,pin,,,1)</f>
-        <v>51.957348528664475</v>
+        <f t="array" aca="1" ref="G28:H28" ca="1">[1]!Jet_p_out_atma(feed_act,D28,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>68.063028864087443</v>
       </c>
       <c r="H28" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":24.398,"fw_perc":71.639,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":96.623,"fw_perc":70.414,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.25">
@@ -4276,22 +4279,24 @@
         <v>4</v>
       </c>
       <c r="D29" t="str" cm="1">
-        <f t="array" ref="D29">[1]!encode_feed(C29,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D29" ca="1">[1]!encode_feed(C29,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":4,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E29" cm="1">
-        <f t="array" ref="E29:F29">[1]!Jet_p_out_atma(feed_act,D29,d_nozzle,d_throat,pact,pin)</f>
-        <v>51.605835864485812</v>
+        <f t="array" aca="1" ref="E29:F29" ca="1">[1]!Jet_p_out_atma(feed_act,D29,d_nozzle,d_throat,pact,pin)</f>
+        <v>65.377349772077253</v>
       </c>
       <c r="F29" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":37.706,"fw_perc":72.122,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":138.824,"fw_perc":70.576,"rp_m3m3":120}</v>
       </c>
       <c r="G29" cm="1">
-        <f t="array" ref="G29:H29">[1]!Jet_p_out_atma(feed_act,D29,d_nozzle,d_throat,pact,pin,,,1)</f>
-        <v>50.880904642692585</v>
+        <f t="array" aca="1" ref="G29:H29" ca="1">[1]!Jet_p_out_atma(feed_act,D29,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>65.377349772077253</v>
       </c>
       <c r="H29" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":26.398,"fw_perc":73.031,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":98.623,"fw_perc":70.811,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.25">
@@ -4299,22 +4304,24 @@
         <v>6</v>
       </c>
       <c r="D30" t="str" cm="1">
-        <f t="array" ref="D30">[1]!encode_feed(C30,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D30" ca="1">[1]!encode_feed(C30,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":6,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E30" cm="1">
-        <f t="array" ref="E30:F30">[1]!Jet_p_out_atma(feed_act,D30,d_nozzle,d_throat,pact,pin)</f>
-        <v>50.887947366850192</v>
+        <f t="array" aca="1" ref="E30:F30" ca="1">[1]!Jet_p_out_atma(feed_act,D30,d_nozzle,d_throat,pact,pin)</f>
+        <v>62.572232770715232</v>
       </c>
       <c r="F30" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":39.706,"fw_perc":73.022,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":140.824,"fw_perc":70.852,"rp_m3m3":120}</v>
       </c>
       <c r="G30" cm="1">
-        <f t="array" ref="G30:H30">[1]!Jet_p_out_atma(feed_act,D30,d_nozzle,d_throat,pact,pin,,,1)</f>
-        <v>49.780377079948408</v>
+        <f t="array" aca="1" ref="G30:H30" ca="1">[1]!Jet_p_out_atma(feed_act,D30,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>62.572232770715232</v>
       </c>
       <c r="H30" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":28.398,"fw_perc":74.226,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":100.623,"fw_perc":71.193,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.25">
@@ -4322,22 +4329,24 @@
         <v>8</v>
       </c>
       <c r="D31" t="str" cm="1">
-        <f t="array" ref="D31">[1]!encode_feed(C31,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D31" ca="1">[1]!encode_feed(C31,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":8,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E31" cm="1">
-        <f t="array" ref="E31:F31">[1]!Jet_p_out_atma(feed_act,D31,d_nozzle,d_throat,pact,pin)</f>
-        <v>50.159424161916924</v>
+        <f t="array" aca="1" ref="E31:F31" ca="1">[1]!Jet_p_out_atma(feed_act,D31,d_nozzle,d_throat,pact,pin)</f>
+        <v>59.647677860001345</v>
       </c>
       <c r="F31" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":41.706,"fw_perc":73.836,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":142.824,"fw_perc":71.12,"rp_m3m3":120}</v>
       </c>
       <c r="G31" cm="1">
-        <f t="array" ref="G31:H31">[1]!Jet_p_out_atma(feed_act,D31,d_nozzle,d_throat,pact,pin,,,1)</f>
-        <v>48.655765840431947</v>
+        <f t="array" aca="1" ref="G31:H31" ca="1">[1]!Jet_p_out_atma(feed_act,D31,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>59.647677860001345</v>
       </c>
       <c r="H31" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":30.398,"fw_perc":75.264,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":102.623,"fw_perc":71.559,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.25">
@@ -4345,22 +4354,24 @@
         <v>10</v>
       </c>
       <c r="D32" t="str" cm="1">
-        <f t="array" ref="D32">[1]!encode_feed(C32,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D32" ca="1">[1]!encode_feed(C32,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":10,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E32" cm="1">
-        <f t="array" ref="E32:F32">[1]!Jet_p_out_atma(feed_act,D32,d_nozzle,d_throat,pact,pin)</f>
-        <v>49.420266249685994</v>
+        <f t="array" aca="1" ref="E32:F32" ca="1">[1]!Jet_p_out_atma(feed_act,D32,d_nozzle,d_throat,pact,pin)</f>
+        <v>56.60368503993562</v>
       </c>
       <c r="F32" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":43.706,"fw_perc":74.576,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":144.824,"fw_perc":71.381,"rp_m3m3":120}</v>
       </c>
       <c r="G32" cm="1">
-        <f t="array" ref="G32:H32">[1]!Jet_p_out_atma(feed_act,D32,d_nozzle,d_throat,pact,pin,,,1)</f>
-        <v>47.507070924143193</v>
+        <f t="array" aca="1" ref="G32:H32" ca="1">[1]!Jet_p_out_atma(feed_act,D32,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>56.60368503993562</v>
       </c>
       <c r="H32" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":32.398,"fw_perc":76.173,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":104.623,"fw_perc":71.912,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="33" spans="3:8" x14ac:dyDescent="0.25">
@@ -4368,22 +4379,24 @@
         <v>12</v>
       </c>
       <c r="D33" t="str" cm="1">
-        <f t="array" ref="D33">[1]!encode_feed(C33,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D33" ca="1">[1]!encode_feed(C33,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":12,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E33" cm="1">
-        <f t="array" ref="E33:F33">[1]!Jet_p_out_atma(feed_act,D33,d_nozzle,d_throat,pact,pin)</f>
-        <v>48.670473630157417</v>
+        <f t="array" aca="1" ref="E33:F33" ca="1">[1]!Jet_p_out_atma(feed_act,D33,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
       </c>
       <c r="F33" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":45.706,"fw_perc":75.251,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":146.824,"fw_perc":71.635,"rp_m3m3":120}</v>
       </c>
       <c r="G33" cm="1">
-        <f t="array" ref="G33:H33">[1]!Jet_p_out_atma(feed_act,D33,d_nozzle,d_throat,pact,pin,,,1)</f>
-        <v>46.33429233108216</v>
+        <f t="array" aca="1" ref="G33:H33" ca="1">[1]!Jet_p_out_atma(feed_act,D33,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
       </c>
       <c r="H33" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":34.398,"fw_perc":76.977,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":106.623,"fw_perc":72.251,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="34" spans="3:8" x14ac:dyDescent="0.25">
@@ -4391,22 +4404,24 @@
         <v>14</v>
       </c>
       <c r="D34" t="str" cm="1">
-        <f t="array" ref="D34">[1]!encode_feed(C34,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D34" ca="1">[1]!encode_feed(C34,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":14,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E34" cm="1">
-        <f t="array" ref="E34:F34">[1]!Jet_p_out_atma(feed_act,D34,d_nozzle,d_throat,pact,pin)</f>
-        <v>47.910046303331185</v>
+        <f t="array" aca="1" ref="E34:F34" ca="1">[1]!Jet_p_out_atma(feed_act,D34,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
       </c>
       <c r="F34" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":47.706,"fw_perc":75.869,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":148.824,"fw_perc":71.881,"rp_m3m3":120}</v>
       </c>
       <c r="G34" cm="1">
-        <f t="array" ref="G34:H34">[1]!Jet_p_out_atma(feed_act,D34,d_nozzle,d_throat,pact,pin,,,1)</f>
-        <v>45.137430061248843</v>
+        <f t="array" aca="1" ref="G34:H34" ca="1">[1]!Jet_p_out_atma(feed_act,D34,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
       </c>
       <c r="H34" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":36.398,"fw_perc":77.693,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":108.623,"fw_perc":72.578,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="35" spans="3:8" x14ac:dyDescent="0.25">
@@ -4414,22 +4429,24 @@
         <v>16</v>
       </c>
       <c r="D35" t="str" cm="1">
-        <f t="array" ref="D35">[1]!encode_feed(C35,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D35" ca="1">[1]!encode_feed(C35,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":16,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E35" cm="1">
-        <f t="array" ref="E35:F35">[1]!Jet_p_out_atma(feed_act,D35,d_nozzle,d_throat,pact,pin)</f>
-        <v>47.138984269207299</v>
+        <f t="array" aca="1" ref="E35:F35" ca="1">[1]!Jet_p_out_atma(feed_act,D35,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
       </c>
       <c r="F35" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":49.706,"fw_perc":76.438,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":150.824,"fw_perc":72.122,"rp_m3m3":120}</v>
       </c>
       <c r="G35" cm="1">
-        <f t="array" ref="G35:H35">[1]!Jet_p_out_atma(feed_act,D35,d_nozzle,d_throat,pact,pin,,,1)</f>
-        <v>43.916484114643239</v>
+        <f t="array" aca="1" ref="G35:H35" ca="1">[1]!Jet_p_out_atma(feed_act,D35,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
       </c>
       <c r="H35" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":38.398,"fw_perc":78.334,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":110.623,"fw_perc":72.893,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="36" spans="3:8" x14ac:dyDescent="0.25">
@@ -4437,22 +4454,24 @@
         <v>18</v>
       </c>
       <c r="D36" t="str" cm="1">
-        <f t="array" ref="D36">[1]!encode_feed(C36,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D36" ca="1">[1]!encode_feed(C36,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":18,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E36" cm="1">
-        <f t="array" ref="E36:F36">[1]!Jet_p_out_atma(feed_act,D36,d_nozzle,d_throat,pact,pin)</f>
-        <v>46.357287527785751</v>
+        <f t="array" aca="1" ref="E36:F36" ca="1">[1]!Jet_p_out_atma(feed_act,D36,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
       </c>
       <c r="F36" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":51.706,"fw_perc":76.962,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":152.824,"fw_perc":72.356,"rp_m3m3":120}</v>
       </c>
       <c r="G36" cm="1">
-        <f t="array" ref="G36:H36">[1]!Jet_p_out_atma(feed_act,D36,d_nozzle,d_throat,pact,pin,,,1)</f>
-        <v>42.671454491265344</v>
+        <f t="array" aca="1" ref="G36:H36" ca="1">[1]!Jet_p_out_atma(feed_act,D36,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
       </c>
       <c r="H36" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":40.398,"fw_perc":78.911,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":112.623,"fw_perc":73.197,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="37" spans="3:8" x14ac:dyDescent="0.25">
@@ -4460,22 +4479,24 @@
         <v>20</v>
       </c>
       <c r="D37" t="str" cm="1">
-        <f t="array" ref="D37">[1]!encode_feed(C37,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D37" ca="1">[1]!encode_feed(C37,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":20,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E37" cm="1">
-        <f t="array" ref="E37:F37">[1]!Jet_p_out_atma(feed_act,D37,d_nozzle,d_throat,pact,pin)</f>
-        <v>45.564956079066555</v>
+        <f t="array" aca="1" ref="E37:F37" ca="1">[1]!Jet_p_out_atma(feed_act,D37,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
       </c>
       <c r="F37" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":53.706,"fw_perc":77.448,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":154.824,"fw_perc":72.584,"rp_m3m3":120}</v>
       </c>
       <c r="G37" cm="1">
-        <f t="array" ref="G37:H37">[1]!Jet_p_out_atma(feed_act,D37,d_nozzle,d_throat,pact,pin,,,1)</f>
-        <v>41.402341191115163</v>
+        <f t="array" aca="1" ref="G37:H37" ca="1">[1]!Jet_p_out_atma(feed_act,D37,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
       </c>
       <c r="H37" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":42.398,"fw_perc":79.434,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":114.623,"fw_perc":73.49,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="38" spans="3:8" x14ac:dyDescent="0.25">
@@ -4483,22 +4504,24 @@
         <v>22</v>
       </c>
       <c r="D38" t="str" cm="1">
-        <f t="array" ref="D38">[1]!encode_feed(C38,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D38" ca="1">[1]!encode_feed(C38,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":22,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E38" cm="1">
-        <f t="array" ref="E38:F38">[1]!Jet_p_out_atma(feed_act,D38,d_nozzle,d_throat,pact,pin)</f>
-        <v>44.761989923049697</v>
+        <f t="array" aca="1" ref="E38:F38" ca="1">[1]!Jet_p_out_atma(feed_act,D38,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
       </c>
       <c r="F38" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":55.706,"fw_perc":77.899,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":156.824,"fw_perc":72.806,"rp_m3m3":120}</v>
       </c>
       <c r="G38" cm="1">
-        <f t="array" ref="G38:H38">[1]!Jet_p_out_atma(feed_act,D38,d_nozzle,d_throat,pact,pin,,,1)</f>
-        <v>40.109144214192696</v>
+        <f t="array" aca="1" ref="G38:H38" ca="1">[1]!Jet_p_out_atma(feed_act,D38,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
       </c>
       <c r="H38" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":44.398,"fw_perc":79.91,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":116.623,"fw_perc":73.773,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="39" spans="3:8" x14ac:dyDescent="0.25">
@@ -4506,22 +4529,24 @@
         <v>24</v>
       </c>
       <c r="D39" t="str" cm="1">
-        <f t="array" ref="D39">[1]!encode_feed(C39,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D39" ca="1">[1]!encode_feed(C39,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":24,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E39" cm="1">
-        <f t="array" ref="E39:F39">[1]!Jet_p_out_atma(feed_act,D39,d_nozzle,d_throat,pact,pin)</f>
-        <v>43.948389059735192</v>
+        <f t="array" aca="1" ref="E39:F39" ca="1">[1]!Jet_p_out_atma(feed_act,D39,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
       </c>
       <c r="F39" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":57.706,"fw_perc":78.318,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":158.824,"fw_perc":73.022,"rp_m3m3":120}</v>
       </c>
       <c r="G39" cm="1">
-        <f t="array" ref="G39:H39">[1]!Jet_p_out_atma(feed_act,D39,d_nozzle,d_throat,pact,pin,,,1)</f>
-        <v>38.791863560497944</v>
+        <f t="array" aca="1" ref="G39:H39" ca="1">[1]!Jet_p_out_atma(feed_act,D39,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
       </c>
       <c r="H39" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":46.398,"fw_perc":80.345,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":118.623,"fw_perc":74.046,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="40" spans="3:8" x14ac:dyDescent="0.25">
@@ -4529,22 +4554,24 @@
         <v>26</v>
       </c>
       <c r="D40" t="str" cm="1">
-        <f t="array" ref="D40">[1]!encode_feed(C40,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D40" ca="1">[1]!encode_feed(C40,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":26,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E40" cm="1">
-        <f t="array" ref="E40:F40">[1]!Jet_p_out_atma(feed_act,D40,d_nozzle,d_throat,pact,pin)</f>
-        <v>43.124153489123039</v>
+        <f t="array" aca="1" ref="E40:F40" ca="1">[1]!Jet_p_out_atma(feed_act,D40,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
       </c>
       <c r="F40" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":59.706,"fw_perc":78.709,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":160.824,"fw_perc":73.233,"rp_m3m3":120}</v>
       </c>
       <c r="G40" cm="1">
-        <f t="array" ref="G40:H40">[1]!Jet_p_out_atma(feed_act,D40,d_nozzle,d_throat,pact,pin,,,1)</f>
-        <v>37.450499230030907</v>
+        <f t="array" aca="1" ref="G40:H40" ca="1">[1]!Jet_p_out_atma(feed_act,D40,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <v>20</v>
       </c>
       <c r="H40" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":48.398,"fw_perc":80.744,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":120.623,"fw_perc":74.311,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="41" spans="3:8" x14ac:dyDescent="0.25">
@@ -4552,22 +4579,24 @@
         <v>28</v>
       </c>
       <c r="D41" t="str" cm="1">
-        <f t="array" ref="D41">[1]!encode_feed(C41,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D41" ca="1">[1]!encode_feed(C41,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":28,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E41" cm="1">
-        <f t="array" ref="E41:F41">[1]!Jet_p_out_atma(feed_act,D41,d_nozzle,d_throat,pact,pin)</f>
-        <v>42.289283211213224</v>
+        <f t="array" aca="1" ref="E41:F41" ca="1">[1]!Jet_p_out_atma(feed_act,D41,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
       </c>
       <c r="F41" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":61.706,"fw_perc":79.075,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":162.824,"fw_perc":73.439,"rp_m3m3":120}</v>
       </c>
       <c r="G41" cm="1">
-        <f t="array" ref="G41:H41">[1]!Jet_p_out_atma(feed_act,D41,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G41:H41" ca="1">[1]!Jet_p_out_atma(feed_act,D41,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H41" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":50.398,"fw_perc":81.112,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":122.623,"fw_perc":74.567,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="42" spans="3:8" x14ac:dyDescent="0.25">
@@ -4575,22 +4604,24 @@
         <v>30</v>
       </c>
       <c r="D42" t="str" cm="1">
-        <f t="array" ref="D42">[1]!encode_feed(C42,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D42" ca="1">[1]!encode_feed(C42,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":30,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E42" cm="1">
-        <f t="array" ref="E42:F42">[1]!Jet_p_out_atma(feed_act,D42,d_nozzle,d_throat,pact,pin)</f>
-        <v>41.443778226005747</v>
+        <f t="array" aca="1" ref="E42:F42" ca="1">[1]!Jet_p_out_atma(feed_act,D42,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
       </c>
       <c r="F42" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":63.706,"fw_perc":79.418,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":164.824,"fw_perc":73.64,"rp_m3m3":120}</v>
       </c>
       <c r="G42" cm="1">
-        <f t="array" ref="G42:H42">[1]!Jet_p_out_atma(feed_act,D42,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G42:H42" ca="1">[1]!Jet_p_out_atma(feed_act,D42,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H42" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":52.398,"fw_perc":81.451,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":124.623,"fw_perc":74.815,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="43" spans="3:8" x14ac:dyDescent="0.25">
@@ -4598,22 +4629,24 @@
         <v>32</v>
       </c>
       <c r="D43" t="str" cm="1">
-        <f t="array" ref="D43">[1]!encode_feed(C43,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D43" ca="1">[1]!encode_feed(C43,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":32,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E43" cm="1">
-        <f t="array" ref="E43:F43">[1]!Jet_p_out_atma(feed_act,D43,d_nozzle,d_throat,pact,pin)</f>
-        <v>40.587638533500623</v>
+        <f t="array" aca="1" ref="E43:F43" ca="1">[1]!Jet_p_out_atma(feed_act,D43,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
       </c>
       <c r="F43" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":65.706,"fw_perc":79.74,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":166.824,"fw_perc":73.836,"rp_m3m3":120}</v>
       </c>
       <c r="G43" cm="1">
-        <f t="array" ref="G43:H43">[1]!Jet_p_out_atma(feed_act,D43,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G43:H43" ca="1">[1]!Jet_p_out_atma(feed_act,D43,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H43" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":54.398,"fw_perc":81.765,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":126.623,"fw_perc":75.054,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="44" spans="3:8" x14ac:dyDescent="0.25">
@@ -4621,22 +4654,24 @@
         <v>34</v>
       </c>
       <c r="D44" t="str" cm="1">
-        <f t="array" ref="D44">[1]!encode_feed(C44,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D44" ca="1">[1]!encode_feed(C44,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":34,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E44" cm="1">
-        <f t="array" ref="E44:F44">[1]!Jet_p_out_atma(feed_act,D44,d_nozzle,d_throat,pact,pin)</f>
-        <v>39.720864133697837</v>
+        <f t="array" aca="1" ref="E44:F44" ca="1">[1]!Jet_p_out_atma(feed_act,D44,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
       </c>
       <c r="F44" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":67.706,"fw_perc":80.043,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":168.824,"fw_perc":74.028,"rp_m3m3":120}</v>
       </c>
       <c r="G44" cm="1">
-        <f t="array" ref="G44:H44">[1]!Jet_p_out_atma(feed_act,D44,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G44:H44" ca="1">[1]!Jet_p_out_atma(feed_act,D44,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H44" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":56.398,"fw_perc":82.057,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":128.623,"fw_perc":75.287,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="45" spans="3:8" x14ac:dyDescent="0.25">
@@ -4644,22 +4679,24 @@
         <v>36</v>
       </c>
       <c r="D45" t="str" cm="1">
-        <f t="array" ref="D45">[1]!encode_feed(C45,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D45" ca="1">[1]!encode_feed(C45,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":36,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E45" cm="1">
-        <f t="array" ref="E45:F45">[1]!Jet_p_out_atma(feed_act,D45,d_nozzle,d_throat,pact,pin)</f>
-        <v>38.843455026597404</v>
+        <f t="array" aca="1" ref="E45:F45" ca="1">[1]!Jet_p_out_atma(feed_act,D45,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
       </c>
       <c r="F45" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":69.706,"fw_perc":80.329,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":170.824,"fw_perc":74.215,"rp_m3m3":120}</v>
       </c>
       <c r="G45" cm="1">
-        <f t="array" ref="G45:H45">[1]!Jet_p_out_atma(feed_act,D45,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G45:H45" ca="1">[1]!Jet_p_out_atma(feed_act,D45,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H45" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":58.398,"fw_perc":82.329,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":130.623,"fw_perc":75.512,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="46" spans="3:8" x14ac:dyDescent="0.25">
@@ -4667,22 +4704,24 @@
         <v>38</v>
       </c>
       <c r="D46" t="str" cm="1">
-        <f t="array" ref="D46">[1]!encode_feed(C46,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D46" ca="1">[1]!encode_feed(C46,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":38,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E46" cm="1">
-        <f t="array" ref="E46:F46">[1]!Jet_p_out_atma(feed_act,D46,d_nozzle,d_throat,pact,pin)</f>
-        <v>37.955411212199316</v>
+        <f t="array" aca="1" ref="E46:F46" ca="1">[1]!Jet_p_out_atma(feed_act,D46,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
       </c>
       <c r="F46" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":71.706,"fw_perc":80.599,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":172.824,"fw_perc":74.398,"rp_m3m3":120}</v>
       </c>
       <c r="G46" cm="1">
-        <f t="array" ref="G46:H46">[1]!Jet_p_out_atma(feed_act,D46,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G46:H46" ca="1">[1]!Jet_p_out_atma(feed_act,D46,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H46" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":60.398,"fw_perc":82.583,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":132.623,"fw_perc":75.731,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="47" spans="3:8" x14ac:dyDescent="0.25">
@@ -4690,22 +4729,24 @@
         <v>40</v>
       </c>
       <c r="D47" t="str" cm="1">
-        <f t="array" ref="D47">[1]!encode_feed(C47,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D47" ca="1">[1]!encode_feed(C47,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":40,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E47" cm="1">
-        <f t="array" ref="E47:F47">[1]!Jet_p_out_atma(feed_act,D47,d_nozzle,d_throat,pact,pin)</f>
-        <v>37.056732690503573</v>
+        <f t="array" aca="1" ref="E47:F47" ca="1">[1]!Jet_p_out_atma(feed_act,D47,d_nozzle,d_throat,pact,pin)</f>
+        <v>20</v>
       </c>
       <c r="F47" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":73.706,"fw_perc":80.854,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":174.824,"fw_perc":74.576,"rp_m3m3":120}</v>
       </c>
       <c r="G47" cm="1">
-        <f t="array" ref="G47:H47">[1]!Jet_p_out_atma(feed_act,D47,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G47:H47" ca="1">[1]!Jet_p_out_atma(feed_act,D47,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H47" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":62.398,"fw_perc":82.821,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":134.623,"fw_perc":75.943,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="48" spans="3:8" x14ac:dyDescent="0.25">
@@ -4713,22 +4754,24 @@
         <v>42</v>
       </c>
       <c r="D48" t="str" cm="1">
-        <f t="array" ref="D48">[1]!encode_feed(C48,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D48" ca="1">[1]!encode_feed(C48,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":42,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E48" cm="1">
-        <f t="array" ref="E48:F48">[1]!Jet_p_out_atma(feed_act,D48,d_nozzle,d_throat,pact,pin)</f>
+        <f t="array" aca="1" ref="E48:F48" ca="1">[1]!Jet_p_out_atma(feed_act,D48,d_nozzle,d_throat,pact,pin)</f>
         <v>20</v>
       </c>
       <c r="F48" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":75.706,"fw_perc":81.096,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":176.824,"fw_perc":74.75,"rp_m3m3":120}</v>
       </c>
       <c r="G48" cm="1">
-        <f t="array" ref="G48:H48">[1]!Jet_p_out_atma(feed_act,D48,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G48:H48" ca="1">[1]!Jet_p_out_atma(feed_act,D48,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H48" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":64.398,"fw_perc":83.044,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":136.623,"fw_perc":76.148,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="49" spans="3:8" x14ac:dyDescent="0.25">
@@ -4736,22 +4779,24 @@
         <v>44</v>
       </c>
       <c r="D49" t="str" cm="1">
-        <f t="array" ref="D49">[1]!encode_feed(C49,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D49" ca="1">[1]!encode_feed(C49,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":44,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E49" cm="1">
-        <f t="array" ref="E49:F49">[1]!Jet_p_out_atma(feed_act,D49,d_nozzle,d_throat,pact,pin)</f>
+        <f t="array" aca="1" ref="E49:F49" ca="1">[1]!Jet_p_out_atma(feed_act,D49,d_nozzle,d_throat,pact,pin)</f>
         <v>20</v>
       </c>
       <c r="F49" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":77.706,"fw_perc":81.325,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":178.824,"fw_perc":74.921,"rp_m3m3":120}</v>
       </c>
       <c r="G49" cm="1">
-        <f t="array" ref="G49:H49">[1]!Jet_p_out_atma(feed_act,D49,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G49:H49" ca="1">[1]!Jet_p_out_atma(feed_act,D49,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H49" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":66.398,"fw_perc":83.253,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":138.623,"fw_perc":76.348,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="50" spans="3:8" x14ac:dyDescent="0.25">
@@ -4759,22 +4804,24 @@
         <v>46</v>
       </c>
       <c r="D50" t="str" cm="1">
-        <f t="array" ref="D50">[1]!encode_feed(C50,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D50" ca="1">[1]!encode_feed(C50,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":46,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E50" cm="1">
-        <f t="array" ref="E50:F50">[1]!Jet_p_out_atma(feed_act,D50,d_nozzle,d_throat,pact,pin)</f>
+        <f t="array" aca="1" ref="E50:F50" ca="1">[1]!Jet_p_out_atma(feed_act,D50,d_nozzle,d_throat,pact,pin)</f>
         <v>20</v>
       </c>
       <c r="F50" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":79.706,"fw_perc":81.542,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":180.824,"fw_perc":75.088,"rp_m3m3":120}</v>
       </c>
       <c r="G50" cm="1">
-        <f t="array" ref="G50:H50">[1]!Jet_p_out_atma(feed_act,D50,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G50:H50" ca="1">[1]!Jet_p_out_atma(feed_act,D50,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H50" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":68.398,"fw_perc":83.451,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":140.623,"fw_perc":76.542,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="51" spans="3:8" x14ac:dyDescent="0.25">
@@ -4782,22 +4829,24 @@
         <v>48</v>
       </c>
       <c r="D51" t="str" cm="1">
-        <f t="array" ref="D51">[1]!encode_feed(C51,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D51" ca="1">[1]!encode_feed(C51,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":48,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E51" cm="1">
-        <f t="array" ref="E51:F51">[1]!Jet_p_out_atma(feed_act,D51,d_nozzle,d_throat,pact,pin)</f>
+        <f t="array" aca="1" ref="E51:F51" ca="1">[1]!Jet_p_out_atma(feed_act,D51,d_nozzle,d_throat,pact,pin)</f>
         <v>20</v>
       </c>
       <c r="F51" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":81.706,"fw_perc":81.749,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":182.824,"fw_perc":75.251,"rp_m3m3":120}</v>
       </c>
       <c r="G51" cm="1">
-        <f t="array" ref="G51:H51">[1]!Jet_p_out_atma(feed_act,D51,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G51:H51" ca="1">[1]!Jet_p_out_atma(feed_act,D51,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H51" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":70.398,"fw_perc":83.637,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":142.623,"fw_perc":76.731,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="52" spans="3:8" x14ac:dyDescent="0.25">
@@ -4805,22 +4854,24 @@
         <v>50</v>
       </c>
       <c r="D52" t="str" cm="1">
-        <f t="array" ref="D52">[1]!encode_feed(C52,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D52" ca="1">[1]!encode_feed(C52,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":50,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E52" cm="1">
-        <f t="array" ref="E52:F52">[1]!Jet_p_out_atma(feed_act,D52,d_nozzle,d_throat,pact,pin)</f>
+        <f t="array" aca="1" ref="E52:F52" ca="1">[1]!Jet_p_out_atma(feed_act,D52,d_nozzle,d_throat,pact,pin)</f>
         <v>20</v>
       </c>
       <c r="F52" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":83.706,"fw_perc":81.947,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":184.824,"fw_perc":75.411,"rp_m3m3":120}</v>
       </c>
       <c r="G52" cm="1">
-        <f t="array" ref="G52:H52">[1]!Jet_p_out_atma(feed_act,D52,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G52:H52" ca="1">[1]!Jet_p_out_atma(feed_act,D52,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H52" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":72.398,"fw_perc":83.813,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":144.623,"fw_perc":76.915,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="53" spans="3:8" x14ac:dyDescent="0.25">
@@ -4828,22 +4879,24 @@
         <v>52</v>
       </c>
       <c r="D53" t="str" cm="1">
-        <f t="array" ref="D53">[1]!encode_feed(C53,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D53" ca="1">[1]!encode_feed(C53,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":52,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E53" cm="1">
-        <f t="array" ref="E53:F53">[1]!Jet_p_out_atma(feed_act,D53,d_nozzle,d_throat,pact,pin)</f>
+        <f t="array" aca="1" ref="E53:F53" ca="1">[1]!Jet_p_out_atma(feed_act,D53,d_nozzle,d_throat,pact,pin)</f>
         <v>20</v>
       </c>
       <c r="F53" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":85.706,"fw_perc":82.135,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":186.824,"fw_perc":75.567,"rp_m3m3":120}</v>
       </c>
       <c r="G53" cm="1">
-        <f t="array" ref="G53:H53">[1]!Jet_p_out_atma(feed_act,D53,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G53:H53" ca="1">[1]!Jet_p_out_atma(feed_act,D53,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H53" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":74.398,"fw_perc":83.979,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":146.623,"fw_perc":77.093,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="54" spans="3:8" x14ac:dyDescent="0.25">
@@ -4851,22 +4904,24 @@
         <v>54</v>
       </c>
       <c r="D54" t="str" cm="1">
-        <f t="array" ref="D54">[1]!encode_feed(C54,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D54" ca="1">[1]!encode_feed(C54,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":54,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E54" cm="1">
-        <f t="array" ref="E54:F54">[1]!Jet_p_out_atma(feed_act,D54,d_nozzle,d_throat,pact,pin)</f>
+        <f t="array" aca="1" ref="E54:F54" ca="1">[1]!Jet_p_out_atma(feed_act,D54,d_nozzle,d_throat,pact,pin)</f>
         <v>20</v>
       </c>
       <c r="F54" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":87.706,"fw_perc":82.314,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":188.824,"fw_perc":75.72,"rp_m3m3":120}</v>
       </c>
       <c r="G54" cm="1">
-        <f t="array" ref="G54:H54">[1]!Jet_p_out_atma(feed_act,D54,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G54:H54" ca="1">[1]!Jet_p_out_atma(feed_act,D54,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H54" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":76.398,"fw_perc":84.137,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":148.623,"fw_perc":77.267,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="55" spans="3:8" x14ac:dyDescent="0.25">
@@ -4874,22 +4929,24 @@
         <v>56</v>
       </c>
       <c r="D55" t="str" cm="1">
-        <f t="array" ref="D55">[1]!encode_feed(C55,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D55" ca="1">[1]!encode_feed(C55,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":56,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E55" cm="1">
-        <f t="array" ref="E55:F55">[1]!Jet_p_out_atma(feed_act,D55,d_nozzle,d_throat,pact,pin)</f>
+        <f t="array" aca="1" ref="E55:F55" ca="1">[1]!Jet_p_out_atma(feed_act,D55,d_nozzle,d_throat,pact,pin)</f>
         <v>20</v>
       </c>
       <c r="F55" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":89.706,"fw_perc":82.485,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":190.824,"fw_perc":75.869,"rp_m3m3":120}</v>
       </c>
       <c r="G55" cm="1">
-        <f t="array" ref="G55:H55">[1]!Jet_p_out_atma(feed_act,D55,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G55:H55" ca="1">[1]!Jet_p_out_atma(feed_act,D55,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H55" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":78.398,"fw_perc":84.286,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":150.623,"fw_perc":77.436,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="56" spans="3:8" x14ac:dyDescent="0.25">
@@ -4897,22 +4954,24 @@
         <v>58</v>
       </c>
       <c r="D56" t="str" cm="1">
-        <f t="array" ref="D56">[1]!encode_feed(C56,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D56" ca="1">[1]!encode_feed(C56,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":58,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E56" cm="1">
-        <f t="array" ref="E56:F56">[1]!Jet_p_out_atma(feed_act,D56,d_nozzle,d_throat,pact,pin)</f>
+        <f t="array" aca="1" ref="E56:F56" ca="1">[1]!Jet_p_out_atma(feed_act,D56,d_nozzle,d_throat,pact,pin)</f>
         <v>20</v>
       </c>
       <c r="F56" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":91.706,"fw_perc":82.649,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":192.824,"fw_perc":76.016,"rp_m3m3":120}</v>
       </c>
       <c r="G56" cm="1">
-        <f t="array" ref="G56:H56">[1]!Jet_p_out_atma(feed_act,D56,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G56:H56" ca="1">[1]!Jet_p_out_atma(feed_act,D56,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H56" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":80.398,"fw_perc":84.428,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":152.623,"fw_perc":77.6,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="57" spans="3:8" x14ac:dyDescent="0.25">
@@ -4920,22 +4979,24 @@
         <v>60</v>
       </c>
       <c r="D57" t="str" cm="1">
-        <f t="array" ref="D57">[1]!encode_feed(C57,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D57" ca="1">[1]!encode_feed(C57,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":60,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E57" cm="1">
-        <f t="array" ref="E57:F57">[1]!Jet_p_out_atma(feed_act,D57,d_nozzle,d_throat,pact,pin)</f>
+        <f t="array" aca="1" ref="E57:F57" ca="1">[1]!Jet_p_out_atma(feed_act,D57,d_nozzle,d_throat,pact,pin)</f>
         <v>20</v>
       </c>
       <c r="F57" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":93.706,"fw_perc":82.806,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":194.824,"fw_perc":76.159,"rp_m3m3":120}</v>
       </c>
       <c r="G57" cm="1">
-        <f t="array" ref="G57:H57">[1]!Jet_p_out_atma(feed_act,D57,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G57:H57" ca="1">[1]!Jet_p_out_atma(feed_act,D57,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H57" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":82.398,"fw_perc":84.563,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":154.623,"fw_perc":77.761,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="58" spans="3:8" x14ac:dyDescent="0.25">
@@ -4943,22 +5004,24 @@
         <v>62</v>
       </c>
       <c r="D58" t="str" cm="1">
-        <f t="array" ref="D58">[1]!encode_feed(C58,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D58" ca="1">[1]!encode_feed(C58,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":62,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E58" cm="1">
-        <f t="array" ref="E58:F58">[1]!Jet_p_out_atma(feed_act,D58,d_nozzle,d_throat,pact,pin)</f>
+        <f t="array" aca="1" ref="E58:F58" ca="1">[1]!Jet_p_out_atma(feed_act,D58,d_nozzle,d_throat,pact,pin)</f>
         <v>20</v>
       </c>
       <c r="F58" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":95.706,"fw_perc":82.956,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":196.824,"fw_perc":76.3,"rp_m3m3":120}</v>
       </c>
       <c r="G58" cm="1">
-        <f t="array" ref="G58:H58">[1]!Jet_p_out_atma(feed_act,D58,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G58:H58" ca="1">[1]!Jet_p_out_atma(feed_act,D58,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H58" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":84.398,"fw_perc":84.692,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":156.623,"fw_perc":77.917,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="59" spans="3:8" x14ac:dyDescent="0.25">
@@ -4966,22 +5029,24 @@
         <v>64</v>
       </c>
       <c r="D59" t="str" cm="1">
-        <f t="array" ref="D59">[1]!encode_feed(C59,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D59" ca="1">[1]!encode_feed(C59,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":64,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E59" cm="1">
-        <f t="array" ref="E59:F59">[1]!Jet_p_out_atma(feed_act,D59,d_nozzle,d_throat,pact,pin)</f>
+        <f t="array" aca="1" ref="E59:F59" ca="1">[1]!Jet_p_out_atma(feed_act,D59,d_nozzle,d_throat,pact,pin)</f>
         <v>20</v>
       </c>
       <c r="F59" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":97.706,"fw_perc":83.101,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":198.824,"fw_perc":76.438,"rp_m3m3":120}</v>
       </c>
       <c r="G59" cm="1">
-        <f t="array" ref="G59:H59">[1]!Jet_p_out_atma(feed_act,D59,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G59:H59" ca="1">[1]!Jet_p_out_atma(feed_act,D59,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H59" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":86.398,"fw_perc":84.815,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":158.623,"fw_perc":78.069,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="60" spans="3:8" x14ac:dyDescent="0.25">
@@ -4989,22 +5054,24 @@
         <v>66</v>
       </c>
       <c r="D60" t="str" cm="1">
-        <f t="array" ref="D60">[1]!encode_feed(C60,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D60" ca="1">[1]!encode_feed(C60,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":66,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E60" cm="1">
-        <f t="array" ref="E60:F60">[1]!Jet_p_out_atma(feed_act,D60,d_nozzle,d_throat,pact,pin)</f>
+        <f t="array" aca="1" ref="E60:F60" ca="1">[1]!Jet_p_out_atma(feed_act,D60,d_nozzle,d_throat,pact,pin)</f>
         <v>20</v>
       </c>
       <c r="F60" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":99.706,"fw_perc":83.239,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":200.824,"fw_perc":76.573,"rp_m3m3":120}</v>
       </c>
       <c r="G60" cm="1">
-        <f t="array" ref="G60:H60">[1]!Jet_p_out_atma(feed_act,D60,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G60:H60" ca="1">[1]!Jet_p_out_atma(feed_act,D60,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H60" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":88.398,"fw_perc":84.932,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":160.623,"fw_perc":78.218,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="61" spans="3:8" x14ac:dyDescent="0.25">
@@ -5012,22 +5079,24 @@
         <v>68</v>
       </c>
       <c r="D61" t="str" cm="1">
-        <f t="array" ref="D61">[1]!encode_feed(C61,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D61" ca="1">[1]!encode_feed(C61,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":68,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E61" cm="1">
-        <f t="array" ref="E61:F61">[1]!Jet_p_out_atma(feed_act,D61,d_nozzle,d_throat,pact,pin)</f>
+        <f t="array" aca="1" ref="E61:F61" ca="1">[1]!Jet_p_out_atma(feed_act,D61,d_nozzle,d_throat,pact,pin)</f>
         <v>20</v>
       </c>
       <c r="F61" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":101.706,"fw_perc":83.372,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":202.824,"fw_perc":76.705,"rp_m3m3":120}</v>
       </c>
       <c r="G61" cm="1">
-        <f t="array" ref="G61:H61">[1]!Jet_p_out_atma(feed_act,D61,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G61:H61" ca="1">[1]!Jet_p_out_atma(feed_act,D61,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H61" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":90.398,"fw_perc":85.045,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":162.623,"fw_perc":78.363,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="62" spans="3:8" x14ac:dyDescent="0.25">
@@ -5035,22 +5104,24 @@
         <v>70</v>
       </c>
       <c r="D62" t="str" cm="1">
-        <f t="array" ref="D62">[1]!encode_feed(C62,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D62" ca="1">[1]!encode_feed(C62,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":70,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E62" cm="1">
-        <f t="array" ref="E62:F62">[1]!Jet_p_out_atma(feed_act,D62,d_nozzle,d_throat,pact,pin)</f>
+        <f t="array" aca="1" ref="E62:F62" ca="1">[1]!Jet_p_out_atma(feed_act,D62,d_nozzle,d_throat,pact,pin)</f>
         <v>20</v>
       </c>
       <c r="F62" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":103.706,"fw_perc":83.5,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":204.824,"fw_perc":76.835,"rp_m3m3":120}</v>
       </c>
       <c r="G62" cm="1">
-        <f t="array" ref="G62:H62">[1]!Jet_p_out_atma(feed_act,D62,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G62:H62" ca="1">[1]!Jet_p_out_atma(feed_act,D62,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H62" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":92.398,"fw_perc":85.152,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":164.623,"fw_perc":78.504,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="63" spans="3:8" x14ac:dyDescent="0.25">
@@ -5058,22 +5129,24 @@
         <v>72</v>
       </c>
       <c r="D63" t="str" cm="1">
-        <f t="array" ref="D63">[1]!encode_feed(C63,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D63" ca="1">[1]!encode_feed(C63,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":72,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E63" cm="1">
-        <f t="array" ref="E63:F63">[1]!Jet_p_out_atma(feed_act,D63,d_nozzle,d_throat,pact,pin)</f>
+        <f t="array" aca="1" ref="E63:F63" ca="1">[1]!Jet_p_out_atma(feed_act,D63,d_nozzle,d_throat,pact,pin)</f>
         <v>20</v>
       </c>
       <c r="F63" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":105.706,"fw_perc":83.623,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":206.824,"fw_perc":76.962,"rp_m3m3":120}</v>
       </c>
       <c r="G63" cm="1">
-        <f t="array" ref="G63:H63">[1]!Jet_p_out_atma(feed_act,D63,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G63:H63" ca="1">[1]!Jet_p_out_atma(feed_act,D63,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H63" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":94.398,"fw_perc":85.255,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":166.623,"fw_perc":78.642,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="64" spans="3:8" x14ac:dyDescent="0.25">
@@ -5081,22 +5154,24 @@
         <v>74</v>
       </c>
       <c r="D64" t="str" cm="1">
-        <f t="array" ref="D64">[1]!encode_feed(C64,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D64" ca="1">[1]!encode_feed(C64,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":74,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E64" cm="1">
-        <f t="array" ref="E64:F64">[1]!Jet_p_out_atma(feed_act,D64,d_nozzle,d_throat,pact,pin)</f>
+        <f t="array" aca="1" ref="E64:F64" ca="1">[1]!Jet_p_out_atma(feed_act,D64,d_nozzle,d_throat,pact,pin)</f>
         <v>20</v>
       </c>
       <c r="F64" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":107.706,"fw_perc":83.741,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":208.824,"fw_perc":77.087,"rp_m3m3":120}</v>
       </c>
       <c r="G64" cm="1">
-        <f t="array" ref="G64:H64">[1]!Jet_p_out_atma(feed_act,D64,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G64:H64" ca="1">[1]!Jet_p_out_atma(feed_act,D64,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H64" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":96.398,"fw_perc":85.353,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":168.623,"fw_perc":78.777,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="65" spans="3:8" x14ac:dyDescent="0.25">
@@ -5104,22 +5179,24 @@
         <v>76</v>
       </c>
       <c r="D65" t="str" cm="1">
-        <f t="array" ref="D65">[1]!encode_feed(C65,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D65" ca="1">[1]!encode_feed(C65,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":76,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E65" cm="1">
-        <f t="array" ref="E65:F65">[1]!Jet_p_out_atma(feed_act,D65,d_nozzle,d_throat,pact,pin)</f>
+        <f t="array" aca="1" ref="E65:F65" ca="1">[1]!Jet_p_out_atma(feed_act,D65,d_nozzle,d_throat,pact,pin)</f>
         <v>20</v>
       </c>
       <c r="F65" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":109.706,"fw_perc":83.855,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":210.824,"fw_perc":77.21,"rp_m3m3":120}</v>
       </c>
       <c r="G65" cm="1">
-        <f t="array" ref="G65:H65">[1]!Jet_p_out_atma(feed_act,D65,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G65:H65" ca="1">[1]!Jet_p_out_atma(feed_act,D65,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H65" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":98.398,"fw_perc":85.447,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":170.623,"fw_perc":78.909,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="66" spans="3:8" x14ac:dyDescent="0.25">
@@ -5127,22 +5204,24 @@
         <v>78</v>
       </c>
       <c r="D66" t="str" cm="1">
-        <f t="array" ref="D66">[1]!encode_feed(C66,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D66" ca="1">[1]!encode_feed(C66,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":78,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E66" cm="1">
-        <f t="array" ref="E66:F66">[1]!Jet_p_out_atma(feed_act,D66,d_nozzle,d_throat,pact,pin)</f>
+        <f t="array" aca="1" ref="E66:F66" ca="1">[1]!Jet_p_out_atma(feed_act,D66,d_nozzle,d_throat,pact,pin)</f>
         <v>20</v>
       </c>
       <c r="F66" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":111.706,"fw_perc":83.965,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":212.824,"fw_perc":77.33,"rp_m3m3":120}</v>
       </c>
       <c r="G66" cm="1">
-        <f t="array" ref="G66:H66">[1]!Jet_p_out_atma(feed_act,D66,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G66:H66" ca="1">[1]!Jet_p_out_atma(feed_act,D66,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H66" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":100.398,"fw_perc":85.538,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":172.623,"fw_perc":79.037,"rp_m3m3":120}</v>
       </c>
     </row>
     <row r="67" spans="3:8" x14ac:dyDescent="0.25">
@@ -5150,22 +5229,24 @@
         <v>80</v>
       </c>
       <c r="D67" t="str" cm="1">
-        <f t="array" ref="D67">[1]!encode_feed(C67,$G$17,$G$18,,$G$15)</f>
+        <f t="array" aca="1" ref="D67" ca="1">[1]!encode_feed(C67,$G$17,$G$18,,$G$15)</f>
         <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":130,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":80,"fw_perc":90,"rp_m3m3":120}</v>
       </c>
       <c r="E67" cm="1">
-        <f t="array" ref="E67:F67">[1]!Jet_p_out_atma(feed_act,D67,d_nozzle,d_throat,pact,pin)</f>
+        <f t="array" aca="1" ref="E67:F67" ca="1">[1]!Jet_p_out_atma(feed_act,D67,d_nozzle,d_throat,pact,pin)</f>
         <v>20</v>
       </c>
       <c r="F67" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":113.706,"fw_perc":84.071,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":214.824,"fw_perc":77.448,"rp_m3m3":120}</v>
       </c>
       <c r="G67" cm="1">
-        <f t="array" ref="G67:H67">[1]!Jet_p_out_atma(feed_act,D67,d_nozzle,d_throat,pact,pin,,,1)</f>
+        <f t="array" aca="1" ref="G67:H67" ca="1">[1]!Jet_p_out_atma(feed_act,D67,d_nozzle,d_throat,pact,pin,,,1)</f>
         <v>20</v>
       </c>
       <c r="H67" t="str">
-        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":102.398,"fw_perc":85.625,"rp_m3m3":120}</v>
+        <f ca="1"/>
+        <v>{"gamma_gas":0.6,"gamma_oil":0.86,"gamma_wat":1.1,"rsb_m3m3":120,"pb_atma":107.533,"t_res_C":80,"bob_m3m3":1.2,"muob_cP":0.6,"PVT_corr_set":0,"q_liq_sm3day":174.623,"fw_perc":79.163,"rp_m3m3":120}</v>
       </c>
     </row>
   </sheetData>
